--- a/Trabajos/Trabajo_1/Code/mtVRP_Cristian_Alzate_Urrea_GRASP.xlsx
+++ b/Trabajos/Trabajo_1/Code/mtVRP_Cristian_Alzate_Urrea_GRASP.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP1.txt" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP10.txt" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP11.txt" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP12.txt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP2.txt" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP3.txt" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP4.txt" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP5.txt" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP6.txt" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP7.txt" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP8.txt" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP9.txt" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="mtVRP1.txt" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="mtVRP10.txt" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="mtVRP11.txt" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="mtVRP12.txt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="mtVRP2.txt" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="mtVRP3.txt" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="mtVRP4.txt" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="mtVRP5.txt" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="mtVRP6.txt" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="mtVRP7.txt" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="mtVRP8.txt" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="mtVRP9.txt" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,99 +456,69 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1" t="n">
+        <v>28</v>
+      </c>
+      <c r="D1" t="n">
         <v>53</v>
       </c>
-      <c r="C1" t="n">
-        <v>58</v>
-      </c>
-      <c r="D1" t="n">
-        <v>40</v>
-      </c>
       <c r="E1" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F1" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="G1" t="n">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="H1" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="I1" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J1" t="n">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="K1" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="L1" t="n">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="M1" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N1" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="O1" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P1" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q1" t="n">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="R1" t="n">
-        <v>92</v>
+        <v>7</v>
       </c>
       <c r="S1" t="n">
         <v>0</v>
       </c>
       <c r="T1" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="U1" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="V1" t="n">
-        <v>97</v>
+        <v>225.3110901107668</v>
       </c>
       <c r="W1" t="n">
-        <v>87</v>
-      </c>
-      <c r="X1" t="n">
-        <v>57</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>98</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>61</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>93</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>99</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>205.5144994471579</v>
-      </c>
-      <c r="AG1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -557,66 +527,111 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2" t="n">
+        <v>73</v>
+      </c>
+      <c r="F2" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2" t="n">
+        <v>74</v>
+      </c>
+      <c r="H2" t="n">
+        <v>22</v>
+      </c>
+      <c r="I2" t="n">
+        <v>75</v>
+      </c>
+      <c r="J2" t="n">
+        <v>41</v>
+      </c>
+      <c r="K2" t="n">
+        <v>57</v>
+      </c>
+      <c r="L2" t="n">
+        <v>87</v>
+      </c>
+      <c r="M2" t="n">
+        <v>97</v>
+      </c>
+      <c r="N2" t="n">
+        <v>92</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37</v>
+      </c>
+      <c r="P2" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>91</v>
+      </c>
+      <c r="R2" t="n">
+        <v>17</v>
+      </c>
+      <c r="S2" t="n">
+        <v>46</v>
+      </c>
+      <c r="T2" t="n">
+        <v>60</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>54</v>
       </c>
-      <c r="E2" t="n">
+      <c r="W2" t="n">
         <v>55</v>
       </c>
-      <c r="F2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="X2" t="n">
+        <v>67</v>
+      </c>
+      <c r="Y2" t="n">
         <v>39</v>
       </c>
-      <c r="H2" t="n">
-        <v>25</v>
-      </c>
-      <c r="I2" t="n">
-        <v>67</v>
-      </c>
-      <c r="J2" t="n">
-        <v>24</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="Z2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="n">
         <v>29</v>
       </c>
-      <c r="L2" t="n">
-        <v>68</v>
-      </c>
-      <c r="M2" t="n">
-        <v>77</v>
-      </c>
-      <c r="N2" t="n">
-        <v>6</v>
-      </c>
-      <c r="O2" t="n">
-        <v>91</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>47</v>
-      </c>
-      <c r="R2" t="n">
-        <v>49</v>
-      </c>
-      <c r="S2" t="n">
-        <v>64</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>305.1068523467439</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="AB2" t="n">
+        <v>33</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>35</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>62</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>378.0041973042731</v>
+      </c>
+      <c r="AK2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -625,105 +640,93 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>99</v>
       </c>
       <c r="G3" t="n">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="I3" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>61</v>
       </c>
       <c r="K3" t="n">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="L3" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="N3" t="n">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="O3" t="n">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="P3" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="Q3" t="n">
+        <v>70</v>
+      </c>
+      <c r="R3" t="n">
+        <v>30</v>
+      </c>
+      <c r="S3" t="n">
+        <v>20</v>
+      </c>
+      <c r="T3" t="n">
+        <v>51</v>
+      </c>
+      <c r="U3" t="n">
+        <v>9</v>
+      </c>
+      <c r="V3" t="n">
+        <v>71</v>
+      </c>
+      <c r="W3" t="n">
+        <v>66</v>
+      </c>
+      <c r="X3" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y3" t="n">
         <v>90</v>
       </c>
-      <c r="R3" t="n">
-        <v>46</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>50</v>
-      </c>
-      <c r="U3" t="n">
-        <v>76</v>
-      </c>
-      <c r="V3" t="n">
-        <v>9</v>
-      </c>
-      <c r="W3" t="n">
-        <v>81</v>
-      </c>
-      <c r="X3" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>71</v>
-      </c>
       <c r="Z3" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="AA3" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>233.4782985300304</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>411.1243087099097</v>
-      </c>
-      <c r="AI3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -732,99 +735,108 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G4" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H4" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K4" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="L4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M4" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="O4" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="R4" t="n">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="S4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="T4" t="n">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="U4" t="n">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="V4" t="n">
+        <v>44</v>
+      </c>
+      <c r="W4" t="n">
         <v>38</v>
       </c>
-      <c r="W4" t="n">
-        <v>44</v>
-      </c>
       <c r="X4" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="Y4" t="n">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AC4" t="n">
-        <v>298.0584288181093</v>
+        <v>25</v>
       </c>
       <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>337.199680526445</v>
+      </c>
+      <c r="AG4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1219.804089321921</v>
+        <v>1173.993266471515</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7820074558258057</v>
+        <v>0.425032377243042</v>
       </c>
     </row>
   </sheetData>
@@ -854,76 +866,67 @@
         <v>103</v>
       </c>
       <c r="C1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="E1" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F1" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I1" t="n">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="J1" t="n">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K1" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="L1" t="n">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="M1" t="n">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="N1" t="n">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="O1" t="n">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="P1" t="n">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="Q1" t="n">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="R1" t="n">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="S1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T1" t="n">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="U1" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="V1" t="n">
-        <v>55</v>
+        <v>229.7684103929106</v>
       </c>
       <c r="W1" t="n">
-        <v>57</v>
-      </c>
-      <c r="X1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>151.7265405672817</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -931,100 +934,100 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="F2" t="n">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="G2" t="n">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="H2" t="n">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="I2" t="n">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="K2" t="n">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="L2" t="n">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="M2" t="n">
-        <v>141</v>
+        <v>24</v>
       </c>
       <c r="N2" t="n">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="O2" t="n">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="P2" t="n">
+        <v>57</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>110</v>
+      </c>
+      <c r="R2" t="n">
         <v>67</v>
       </c>
-      <c r="Q2" t="n">
-        <v>96</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="U2" t="n">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="V2" t="n">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="W2" t="n">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="Y2" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="Z2" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="AB2" t="n">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="AD2" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="n">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>273.5392279571445</v>
+        <v>418.1483076339081</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -1035,87 +1038,96 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="H3" t="n">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="J3" t="n">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="K3" t="n">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="L3" t="n">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="M3" t="n">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="N3" t="n">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="O3" t="n">
+        <v>83</v>
+      </c>
+      <c r="P3" t="n">
+        <v>128</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>85</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9</v>
+      </c>
+      <c r="T3" t="n">
+        <v>104</v>
+      </c>
+      <c r="U3" t="n">
+        <v>34</v>
+      </c>
+      <c r="V3" t="n">
+        <v>30</v>
+      </c>
+      <c r="W3" t="n">
+        <v>54</v>
+      </c>
+      <c r="X3" t="n">
+        <v>39</v>
+      </c>
+      <c r="Y3" t="n">
         <v>106</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>68</v>
-      </c>
-      <c r="R3" t="n">
-        <v>133</v>
-      </c>
-      <c r="S3" t="n">
-        <v>18</v>
-      </c>
-      <c r="T3" t="n">
-        <v>25</v>
-      </c>
-      <c r="U3" t="n">
-        <v>95</v>
-      </c>
-      <c r="V3" t="n">
-        <v>14</v>
-      </c>
-      <c r="W3" t="n">
-        <v>58</v>
-      </c>
-      <c r="X3" t="n">
-        <v>132</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>98</v>
-      </c>
       <c r="Z3" t="n">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="n">
-        <v>195.5477215512622</v>
+        <v>117</v>
       </c>
       <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>255.0747775822989</v>
+      </c>
+      <c r="AF3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1124,70 +1136,97 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="F4" t="n">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="G4" t="n">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="H4" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="I4" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="K4" t="n">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="L4" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="N4" t="n">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="O4" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Q4" t="n">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="R4" t="n">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="S4" t="n">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="T4" t="n">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>316.9773632858517</v>
+        <v>131</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="X4" t="n">
+        <v>59</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>160.1587157911009</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1195,105 +1234,90 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
+        <v>132</v>
+      </c>
+      <c r="F5" t="n">
+        <v>58</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>95</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14</v>
+      </c>
+      <c r="J5" t="n">
+        <v>18</v>
+      </c>
+      <c r="K5" t="n">
+        <v>55</v>
+      </c>
+      <c r="L5" t="n">
+        <v>141</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
         <v>81</v>
       </c>
-      <c r="F5" t="n">
-        <v>138</v>
-      </c>
-      <c r="G5" t="n">
-        <v>112</v>
-      </c>
-      <c r="H5" t="n">
-        <v>48</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="P5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>140</v>
+      </c>
+      <c r="R5" t="n">
+        <v>82</v>
+      </c>
+      <c r="S5" t="n">
+        <v>113</v>
+      </c>
+      <c r="T5" t="n">
+        <v>26</v>
+      </c>
+      <c r="U5" t="n">
         <v>60</v>
       </c>
-      <c r="J5" t="n">
-        <v>8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>140</v>
-      </c>
-      <c r="L5" t="n">
-        <v>26</v>
-      </c>
-      <c r="M5" t="n">
-        <v>113</v>
-      </c>
-      <c r="N5" t="n">
-        <v>82</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="V5" t="n">
+        <v>80</v>
+      </c>
+      <c r="W5" t="n">
+        <v>22</v>
+      </c>
+      <c r="X5" t="n">
         <v>28</v>
       </c>
-      <c r="P5" t="n">
-        <v>74</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>22</v>
-      </c>
-      <c r="S5" t="n">
-        <v>31</v>
-      </c>
-      <c r="T5" t="n">
+      <c r="Y5" t="n">
         <v>116</v>
       </c>
-      <c r="U5" t="n">
-        <v>70</v>
-      </c>
-      <c r="V5" t="n">
-        <v>115</v>
-      </c>
-      <c r="W5" t="n">
-        <v>54</v>
-      </c>
-      <c r="X5" t="n">
-        <v>91</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>15</v>
-      </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="AA5" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>42</v>
+        <v>242.2093104390854</v>
       </c>
       <c r="AD5" t="n">
-        <v>94</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>421.0001666101563</v>
-      </c>
-      <c r="AI5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1302,108 +1326,114 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="G6" t="n">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I6" t="n">
+        <v>91</v>
+      </c>
+      <c r="J6" t="n">
+        <v>45</v>
+      </c>
+      <c r="K6" t="n">
+        <v>107</v>
+      </c>
+      <c r="L6" t="n">
+        <v>44</v>
+      </c>
+      <c r="M6" t="n">
+        <v>137</v>
+      </c>
+      <c r="N6" t="n">
+        <v>17</v>
+      </c>
+      <c r="O6" t="n">
+        <v>145</v>
+      </c>
+      <c r="P6" t="n">
+        <v>147</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>105</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="n">
+        <v>122</v>
+      </c>
+      <c r="U6" t="n">
+        <v>125</v>
+      </c>
+      <c r="V6" t="n">
+        <v>74</v>
+      </c>
+      <c r="W6" t="n">
+        <v>21</v>
+      </c>
+      <c r="X6" t="n">
         <v>118</v>
       </c>
-      <c r="J6" t="n">
-        <v>50</v>
-      </c>
-      <c r="K6" t="n">
-        <v>9</v>
-      </c>
-      <c r="L6" t="n">
-        <v>127</v>
-      </c>
-      <c r="M6" t="n">
-        <v>53</v>
-      </c>
-      <c r="N6" t="n">
-        <v>83</v>
-      </c>
-      <c r="O6" t="n">
-        <v>29</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>69</v>
-      </c>
-      <c r="S6" t="n">
-        <v>7</v>
-      </c>
-      <c r="T6" t="n">
-        <v>23</v>
-      </c>
-      <c r="U6" t="n">
-        <v>61</v>
-      </c>
-      <c r="V6" t="n">
-        <v>99</v>
-      </c>
-      <c r="W6" t="n">
-        <v>43</v>
-      </c>
-      <c r="X6" t="n">
-        <v>97</v>
-      </c>
       <c r="Y6" t="n">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="n">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="AB6" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="AC6" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="AD6" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AF6" t="n">
-        <v>337.2711401895599</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>344.1080705709603</v>
+      </c>
+      <c r="AI6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1696.062160161256</v>
+        <v>1649.467592410264</v>
       </c>
       <c r="B7" t="n">
-        <v>1.365409374237061</v>
+        <v>0.9322481155395508</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:AZ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1433,121 +1463,133 @@
         <v>152</v>
       </c>
       <c r="C1" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="E1" t="n">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="F1" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G1" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="H1" t="n">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="I1" t="n">
-        <v>27</v>
+        <v>181</v>
       </c>
       <c r="J1" t="n">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="K1" t="n">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="L1" t="n">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="M1" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="N1" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="O1" t="n">
-        <v>16</v>
+        <v>144</v>
       </c>
       <c r="P1" t="n">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="Q1" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="R1" t="n">
-        <v>104</v>
+        <v>160</v>
       </c>
       <c r="S1" t="n">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="T1" t="n">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="U1" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="V1" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="W1" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="X1" t="n">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="Y1" t="n">
-        <v>68</v>
+        <v>9</v>
       </c>
       <c r="Z1" t="n">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="AA1" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="n">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="AC1" t="n">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="AD1" t="n">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="AE1" t="n">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="AF1" t="n">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="AG1" t="n">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="AH1" t="n">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="AJ1" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AK1" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AL1" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AM1" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN1" t="n">
-        <v>267.5281666022589</v>
+        <v>14</v>
       </c>
       <c r="AO1" t="n">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>133</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>349.3422627472958</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -1555,141 +1597,153 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>95</v>
+      </c>
+      <c r="D2" t="n">
         <v>126</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>17</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>168</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
+        <v>26</v>
+      </c>
+      <c r="H2" t="n">
         <v>81</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>12</v>
+      </c>
+      <c r="J2" t="n">
+        <v>50</v>
+      </c>
+      <c r="K2" t="n">
         <v>100</v>
       </c>
-      <c r="G2" t="n">
-        <v>50</v>
-      </c>
-      <c r="H2" t="n">
-        <v>12</v>
-      </c>
-      <c r="I2" t="n">
-        <v>130</v>
-      </c>
-      <c r="J2" t="n">
-        <v>40</v>
-      </c>
-      <c r="K2" t="n">
-        <v>76</v>
-      </c>
       <c r="L2" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M2" t="n">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="N2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="P2" t="n">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>188</v>
+        <v>98</v>
       </c>
       <c r="S2" t="n">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="T2" t="n">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="U2" t="n">
-        <v>90</v>
+        <v>179</v>
       </c>
       <c r="V2" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="W2" t="n">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="X2" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="Z2" t="n">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="n">
-        <v>185</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="AC2" t="n">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="AD2" t="n">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="AG2" t="n">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="AK2" t="n">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="AL2" t="n">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="AM2" t="n">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="AN2" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AO2" t="n">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="AP2" t="n">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="AQ2" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AT2" t="n">
-        <v>401.9813811712868</v>
+        <v>163</v>
       </c>
       <c r="AU2" t="n">
+        <v>169</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>353.3195452911467</v>
+      </c>
+      <c r="AY2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1701,126 +1755,153 @@
         <v>61</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="D3" t="n">
         <v>96</v>
       </c>
       <c r="E3" t="n">
+        <v>33</v>
+      </c>
+      <c r="F3" t="n">
         <v>193</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>194</v>
-      </c>
-      <c r="G3" t="n">
-        <v>66</v>
       </c>
       <c r="H3" t="n">
         <v>196</v>
       </c>
       <c r="I3" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="J3" t="n">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="L3" t="n">
-        <v>114</v>
+        <v>190</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="N3" t="n">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="O3" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>51</v>
+        <v>125</v>
       </c>
       <c r="Q3" t="n">
+        <v>30</v>
+      </c>
+      <c r="R3" t="n">
+        <v>120</v>
+      </c>
+      <c r="S3" t="n">
+        <v>172</v>
+      </c>
+      <c r="T3" t="n">
+        <v>173</v>
+      </c>
+      <c r="U3" t="n">
+        <v>21</v>
+      </c>
+      <c r="V3" t="n">
+        <v>121</v>
+      </c>
+      <c r="W3" t="n">
+        <v>82</v>
+      </c>
+      <c r="X3" t="n">
+        <v>174</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>155</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>88</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>175</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>167</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>153</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>79</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>103</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>124</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>102</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>129</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR3" t="n">
         <v>132</v>
       </c>
-      <c r="R3" t="n">
-        <v>180</v>
-      </c>
-      <c r="S3" t="n">
-        <v>69</v>
-      </c>
-      <c r="T3" t="n">
-        <v>108</v>
-      </c>
-      <c r="U3" t="n">
-        <v>52</v>
-      </c>
-      <c r="V3" t="n">
-        <v>11</v>
-      </c>
-      <c r="W3" t="n">
-        <v>169</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>182</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>63</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>107</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>144</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>74</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>49</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>62</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>91</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>141</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>137</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>177</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>189</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>419.7077304089611</v>
-      </c>
-      <c r="AQ3" t="n">
+      <c r="AS3" t="n">
+        <v>31</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>148</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>164</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>166</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>559.2612433276522</v>
+      </c>
+      <c r="AZ3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1829,141 +1910,144 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>127</v>
+        <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="D4" t="n">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>111</v>
+        <v>157</v>
       </c>
       <c r="F4" t="n">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="H4" t="n">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="I4" t="n">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="J4" t="n">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="K4" t="n">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="L4" t="n">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="M4" t="n">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="O4" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="P4" t="n">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="Q4" t="n">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="R4" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>121</v>
+        <v>195</v>
       </c>
       <c r="T4" t="n">
-        <v>82</v>
+        <v>198</v>
       </c>
       <c r="U4" t="n">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="V4" t="n">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="W4" t="n">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="X4" t="n">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="Y4" t="n">
+        <v>43</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>115</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>143</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>89</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>156</v>
+      </c>
+      <c r="AE4" t="n">
         <v>101</v>
       </c>
-      <c r="Z4" t="n">
-        <v>171</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>155</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>124</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>123</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>7</v>
-      </c>
       <c r="AF4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AH4" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="n">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="n">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="AL4" t="n">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="AM4" t="n">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AO4" t="n">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="AP4" t="n">
-        <v>35</v>
+        <v>170</v>
       </c>
       <c r="AQ4" t="n">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>382.3307676103572</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
+        <v>389.2438044033386</v>
+      </c>
+      <c r="AV4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1972,177 +2056,123 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>157</v>
+        <v>60</v>
       </c>
       <c r="C5" t="n">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>127</v>
       </c>
       <c r="F5" t="n">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="G5" t="n">
-        <v>112</v>
+        <v>58</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I5" t="n">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="K5" t="n">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="L5" t="n">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="M5" t="n">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="N5" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P5" t="n">
         <v>117</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="R5" t="n">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="S5" t="n">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="T5" t="n">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="U5" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V5" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="W5" t="n">
-        <v>161</v>
+        <v>68</v>
       </c>
       <c r="X5" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="Z5" t="n">
-        <v>57</v>
+        <v>136</v>
       </c>
       <c r="AA5" t="n">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="AC5" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="AD5" t="n">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="AE5" t="n">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="AF5" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="AG5" t="n">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="AH5" t="n">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>138</v>
+        <v>345.3687612881532</v>
       </c>
       <c r="AL5" t="n">
-        <v>88</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>72</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>73</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>131</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>31</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>162</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>163</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>71</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>133</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>166</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>164</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>118</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>630.5810189361284</v>
-      </c>
-      <c r="BD5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2102.129064728992</v>
+        <v>1996.535617057586</v>
       </c>
       <c r="B6" t="n">
-        <v>1.997906684875488</v>
+        <v>1.672632217407227</v>
       </c>
     </row>
   </sheetData>
@@ -2156,7 +2186,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB6"/>
+  <dimension ref="A1:AZ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2175,138 +2205,132 @@
         <v>61</v>
       </c>
       <c r="D1" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="E1" t="n">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="F1" t="n">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="G1" t="n">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="H1" t="n">
-        <v>198</v>
+        <v>101</v>
       </c>
       <c r="I1" t="n">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="J1" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="K1" t="n">
+        <v>156</v>
+      </c>
+      <c r="L1" t="n">
+        <v>22</v>
+      </c>
+      <c r="M1" t="n">
+        <v>93</v>
+      </c>
+      <c r="N1" t="n">
+        <v>186</v>
+      </c>
+      <c r="O1" t="n">
         <v>136</v>
       </c>
-      <c r="L1" t="n">
-        <v>191</v>
-      </c>
-      <c r="M1" t="n">
+      <c r="P1" t="n">
         <v>197</v>
       </c>
-      <c r="N1" t="n">
-        <v>190</v>
-      </c>
-      <c r="O1" t="n">
-        <v>141</v>
-      </c>
-      <c r="P1" t="n">
-        <v>66</v>
-      </c>
       <c r="Q1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="R1" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="S1" t="n">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="T1" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="U1" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="V1" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="W1" t="n">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="X1" t="n">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="Y1" t="n">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Z1" t="n">
-        <v>99</v>
+        <v>9</v>
       </c>
       <c r="AA1" t="n">
-        <v>27</v>
+        <v>97</v>
       </c>
       <c r="AB1" t="n">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="AC1" t="n">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AD1" t="n">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="AE1" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="AF1" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="AG1" t="n">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="AH1" t="n">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AI1" t="n">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="AJ1" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="n">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="AL1" t="n">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="AM1" t="n">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="AN1" t="n">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="AO1" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AP1" t="n">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="AQ1" t="n">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="AR1" t="n">
         <v>0</v>
       </c>
       <c r="AS1" t="n">
-        <v>38</v>
+        <v>394.9638352736951</v>
       </c>
       <c r="AT1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU1" t="n">
-        <v>350.0530567472083</v>
-      </c>
-      <c r="AV1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2315,129 +2339,132 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>152</v>
+      </c>
+      <c r="C2" t="n">
+        <v>157</v>
+      </c>
+      <c r="D2" t="n">
+        <v>139</v>
+      </c>
+      <c r="E2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" t="n">
+        <v>54</v>
+      </c>
+      <c r="G2" t="n">
+        <v>125</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>127</v>
+      </c>
+      <c r="J2" t="n">
+        <v>60</v>
+      </c>
+      <c r="K2" t="n">
+        <v>81</v>
+      </c>
+      <c r="L2" t="n">
+        <v>168</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
         <v>95</v>
       </c>
-      <c r="C2" t="n">
-        <v>126</v>
-      </c>
-      <c r="D2" t="n">
-        <v>127</v>
-      </c>
-      <c r="E2" t="n">
-        <v>60</v>
-      </c>
-      <c r="F2" t="n">
-        <v>81</v>
-      </c>
-      <c r="G2" t="n">
-        <v>26</v>
-      </c>
-      <c r="H2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I2" t="n">
-        <v>50</v>
-      </c>
-      <c r="J2" t="n">
-        <v>169</v>
-      </c>
-      <c r="K2" t="n">
-        <v>71</v>
-      </c>
-      <c r="L2" t="n">
-        <v>129</v>
-      </c>
-      <c r="M2" t="n">
-        <v>119</v>
-      </c>
-      <c r="N2" t="n">
-        <v>77</v>
-      </c>
       <c r="O2" t="n">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="P2" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="S2" t="n">
-        <v>40</v>
+        <v>153</v>
       </c>
       <c r="T2" t="n">
-        <v>187</v>
+        <v>79</v>
       </c>
       <c r="U2" t="n">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="V2" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="W2" t="n">
-        <v>161</v>
+        <v>103</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="Y2" t="n">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="Z2" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="AB2" t="n">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="AE2" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF2" t="n">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="AH2" t="n">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="AI2" t="n">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="AJ2" t="n">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="AK2" t="n">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="AL2" t="n">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AO2" t="n">
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>298.3656685478181</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
+        <v>405.485211981912</v>
+      </c>
+      <c r="AR2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2446,132 +2473,129 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="C3" t="n">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>159</v>
       </c>
       <c r="E3" t="n">
-        <v>54</v>
+        <v>182</v>
       </c>
       <c r="F3" t="n">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="G3" t="n">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="H3" t="n">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="I3" t="n">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="J3" t="n">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="K3" t="n">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="L3" t="n">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="M3" t="n">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="P3" t="n">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="Q3" t="n">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="R3" t="n">
-        <v>194</v>
+        <v>40</v>
       </c>
       <c r="S3" t="n">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="T3" t="n">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="U3" t="n">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="V3" t="n">
-        <v>186</v>
+        <v>71</v>
       </c>
       <c r="W3" t="n">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="X3" t="n">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="n">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="n">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="AC3" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="AE3" t="n">
-        <v>47</v>
+        <v>184</v>
       </c>
       <c r="AF3" t="n">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="AG3" t="n">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="AH3" t="n">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="AJ3" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK3" t="n">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="AL3" t="n">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="AM3" t="n">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="AN3" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>289.0368916285234</v>
       </c>
       <c r="AQ3" t="n">
-        <v>362.3121592485745</v>
-      </c>
-      <c r="AR3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2580,135 +2604,147 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D4" t="n">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="F4" t="n">
-        <v>168</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="I4" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>198</v>
       </c>
       <c r="K4" t="n">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="L4" t="n">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="M4" t="n">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="N4" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="P4" t="n">
-        <v>30</v>
+        <v>190</v>
       </c>
       <c r="Q4" t="n">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>175</v>
+      </c>
+      <c r="T4" t="n">
+        <v>70</v>
+      </c>
+      <c r="U4" t="n">
+        <v>19</v>
+      </c>
+      <c r="V4" t="n">
+        <v>78</v>
+      </c>
+      <c r="W4" t="n">
+        <v>177</v>
+      </c>
+      <c r="X4" t="n">
+        <v>133</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>84</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>108</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>69</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>180</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>52</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>59</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>122</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>155</v>
       </c>
-      <c r="S4" t="n">
-        <v>36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>122</v>
-      </c>
-      <c r="U4" t="n">
-        <v>138</v>
-      </c>
-      <c r="V4" t="n">
-        <v>88</v>
-      </c>
-      <c r="W4" t="n">
-        <v>20</v>
-      </c>
-      <c r="X4" t="n">
+      <c r="AK4" t="n">
+        <v>124</v>
+      </c>
+      <c r="AL4" t="n">
         <v>166</v>
       </c>
-      <c r="Y4" t="n">
-        <v>140</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>156</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>116</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>63</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>118</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>56</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>75</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>31</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>163</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>148</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>92</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>135</v>
-      </c>
       <c r="AM4" t="n">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="AN4" t="n">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="AO4" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="AR4" t="n">
-        <v>511.9398530131147</v>
+        <v>38</v>
       </c>
       <c r="AS4" t="n">
+        <v>165</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>467.1469849921701</v>
+      </c>
+      <c r="AW4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2717,171 +2753,165 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D5" t="n">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="F5" t="n">
-        <v>153</v>
+        <v>51</v>
       </c>
       <c r="G5" t="n">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>132</v>
       </c>
       <c r="I5" t="n">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="J5" t="n">
+        <v>178</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8</v>
+      </c>
+      <c r="L5" t="n">
+        <v>102</v>
+      </c>
+      <c r="M5" t="n">
+        <v>176</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>87</v>
+      </c>
+      <c r="P5" t="n">
+        <v>111</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>45</v>
+      </c>
+      <c r="R5" t="n">
+        <v>58</v>
+      </c>
+      <c r="S5" t="n">
+        <v>99</v>
+      </c>
+      <c r="T5" t="n">
+        <v>167</v>
+      </c>
+      <c r="U5" t="n">
+        <v>179</v>
+      </c>
+      <c r="V5" t="n">
+        <v>65</v>
+      </c>
+      <c r="W5" t="n">
+        <v>46</v>
+      </c>
+      <c r="X5" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z5" t="n">
         <v>154</v>
       </c>
-      <c r="K5" t="n">
-        <v>103</v>
-      </c>
-      <c r="L5" t="n">
-        <v>5</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AC5" t="n">
         <v>48</v>
       </c>
-      <c r="N5" t="n">
+      <c r="AD5" t="n">
+        <v>171</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>47</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>174</v>
+      </c>
+      <c r="AG5" t="n">
         <v>173</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>151</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>55</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>117</v>
-      </c>
-      <c r="T5" t="n">
-        <v>16</v>
-      </c>
-      <c r="U5" t="n">
-        <v>67</v>
-      </c>
-      <c r="V5" t="n">
-        <v>182</v>
-      </c>
-      <c r="W5" t="n">
-        <v>49</v>
-      </c>
-      <c r="X5" t="n">
-        <v>74</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>144</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>106</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>192</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>43</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>199</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>184</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>160</v>
-      </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
-        <v>183</v>
+        <v>121</v>
       </c>
       <c r="AJ5" t="n">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="AK5" t="n">
-        <v>185</v>
+        <v>82</v>
       </c>
       <c r="AL5" t="n">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AN5" t="n">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="AO5" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="AQ5" t="n">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="AR5" t="n">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AS5" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AT5" t="n">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="AU5" t="n">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AV5" t="n">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="AW5" t="n">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="AX5" t="n">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>131</v>
+        <v>450.8278860751182</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>489.1072498966247</v>
-      </c>
-      <c r="BB5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2011.77798745334</v>
+        <v>2007.460809951419</v>
       </c>
       <c r="B6" t="n">
-        <v>2.009538888931274</v>
+        <v>1.981407642364502</v>
       </c>
     </row>
   </sheetData>
@@ -2895,7 +2925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2911,46 +2941,49 @@
         <v>46</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>49</v>
+      </c>
+      <c r="F1" t="n">
+        <v>9</v>
+      </c>
+      <c r="G1" t="n">
+        <v>16</v>
+      </c>
+      <c r="H1" t="n">
+        <v>20</v>
+      </c>
+      <c r="I1" t="n">
+        <v>35</v>
+      </c>
+      <c r="J1" t="n">
+        <v>36</v>
+      </c>
+      <c r="K1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L1" t="n">
+        <v>28</v>
+      </c>
+      <c r="M1" t="n">
+        <v>31</v>
+      </c>
+      <c r="N1" t="n">
         <v>11</v>
       </c>
-      <c r="E1" t="n">
-        <v>50</v>
-      </c>
-      <c r="F1" t="n">
-        <v>29</v>
-      </c>
-      <c r="G1" t="n">
-        <v>20</v>
-      </c>
-      <c r="H1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I1" t="n">
-        <v>28</v>
-      </c>
-      <c r="J1" t="n">
-        <v>31</v>
-      </c>
-      <c r="K1" t="n">
-        <v>48</v>
-      </c>
-      <c r="L1" t="n">
-        <v>14</v>
-      </c>
-      <c r="M1" t="n">
-        <v>6</v>
-      </c>
-      <c r="N1" t="n">
-        <v>0</v>
-      </c>
       <c r="O1" t="n">
-        <v>134.4470534151357</v>
+        <v>0</v>
       </c>
       <c r="P1" t="n">
-        <v>0</v>
+        <v>152.6586550765982</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -2958,70 +2991,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2" t="n">
+        <v>21</v>
+      </c>
+      <c r="I2" t="n">
+        <v>34</v>
+      </c>
+      <c r="J2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K2" t="n">
         <v>10</v>
       </c>
-      <c r="F2" t="n">
-        <v>30</v>
-      </c>
-      <c r="G2" t="n">
-        <v>34</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-      <c r="I2" t="n">
-        <v>38</v>
-      </c>
-      <c r="J2" t="n">
-        <v>16</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M2" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>42</v>
+        <v>139.655916590908</v>
       </c>
       <c r="Q2" t="n">
-        <v>21</v>
-      </c>
-      <c r="R2" t="n">
-        <v>36</v>
-      </c>
-      <c r="S2" t="n">
-        <v>35</v>
-      </c>
-      <c r="T2" t="n">
-        <v>13</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>355.7875922629702</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3029,48 +3044,45 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="K3" t="n">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="L3" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>129.9812700205735</v>
       </c>
       <c r="O3" t="n">
-        <v>137.192916195879</v>
-      </c>
-      <c r="P3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3079,54 +3091,72 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F4" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="H4" t="n">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="J4" t="n">
+        <v>25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19</v>
+      </c>
+      <c r="N4" t="n">
+        <v>41</v>
+      </c>
+      <c r="O4" t="n">
+        <v>40</v>
+      </c>
+      <c r="P4" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>24</v>
+      </c>
+      <c r="R4" t="n">
         <v>33</v>
       </c>
-      <c r="K4" t="n">
-        <v>39</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>120.6330675432264</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>329.8086421009652</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>748.0606294172112</v>
+        <v>752.1044837890449</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2382791042327881</v>
+        <v>0.1342771053314209</v>
       </c>
     </row>
   </sheetData>
@@ -3140,7 +3170,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AU5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3156,121 +3186,139 @@
         <v>88</v>
       </c>
       <c r="C1" t="n">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="D1" t="n">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="E1" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F1" t="n">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="G1" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H1" t="n">
+        <v>117</v>
+      </c>
+      <c r="I1" t="n">
+        <v>83</v>
+      </c>
+      <c r="J1" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1" t="n">
+        <v>114</v>
+      </c>
+      <c r="L1" t="n">
+        <v>118</v>
+      </c>
+      <c r="M1" t="n">
+        <v>108</v>
+      </c>
+      <c r="N1" t="n">
+        <v>109</v>
+      </c>
+      <c r="O1" t="n">
+        <v>115</v>
+      </c>
+      <c r="P1" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>96</v>
+      </c>
+      <c r="R1" t="n">
+        <v>93</v>
+      </c>
+      <c r="S1" t="n">
         <v>92</v>
       </c>
-      <c r="I1" t="n">
+      <c r="T1" t="n">
         <v>91</v>
       </c>
-      <c r="J1" t="n">
-        <v>93</v>
-      </c>
-      <c r="K1" t="n">
-        <v>96</v>
-      </c>
-      <c r="L1" t="n">
+      <c r="U1" t="n">
         <v>95</v>
       </c>
-      <c r="M1" t="n">
-        <v>101</v>
-      </c>
-      <c r="N1" t="n">
-        <v>102</v>
-      </c>
-      <c r="O1" t="n">
-        <v>106</v>
-      </c>
-      <c r="P1" t="n">
-        <v>105</v>
-      </c>
-      <c r="Q1" t="n">
+      <c r="V1" t="n">
         <v>107</v>
       </c>
-      <c r="R1" t="n">
-        <v>103</v>
-      </c>
-      <c r="S1" t="n">
-        <v>104</v>
-      </c>
-      <c r="T1" t="n">
-        <v>100</v>
-      </c>
-      <c r="U1" t="n">
-        <v>99</v>
-      </c>
-      <c r="V1" t="n">
-        <v>110</v>
-      </c>
       <c r="W1" t="n">
         <v>0</v>
       </c>
       <c r="X1" t="n">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="Y1" t="n">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="Z1" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="AA1" t="n">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="AB1" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="AC1" t="n">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="AD1" t="n">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="AE1" t="n">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="AF1" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AG1" t="n">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="AH1" t="n">
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="AI1" t="n">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="AJ1" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="AK1" t="n">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="AL1" t="n">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="AM1" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AN1" t="n">
-        <v>249.6145644534344</v>
+        <v>35</v>
       </c>
       <c r="AO1" t="n">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>376.8946353156179</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
@@ -3278,115 +3326,115 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
         <v>81</v>
       </c>
       <c r="E2" t="n">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F2" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="G2" t="n">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H2" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I2" t="n">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="J2" t="n">
+        <v>101</v>
+      </c>
+      <c r="K2" t="n">
+        <v>99</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>116</v>
+      </c>
+      <c r="N2" t="n">
+        <v>98</v>
+      </c>
+      <c r="O2" t="n">
+        <v>110</v>
+      </c>
+      <c r="P2" t="n">
+        <v>103</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>104</v>
+      </c>
+      <c r="R2" t="n">
+        <v>94</v>
+      </c>
+      <c r="S2" t="n">
         <v>90</v>
       </c>
-      <c r="K2" t="n">
-        <v>114</v>
-      </c>
-      <c r="L2" t="n">
-        <v>118</v>
-      </c>
-      <c r="M2" t="n">
-        <v>18</v>
-      </c>
-      <c r="N2" t="n">
-        <v>94</v>
-      </c>
-      <c r="O2" t="n">
-        <v>115</v>
-      </c>
-      <c r="P2" t="n">
-        <v>116</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>97</v>
-      </c>
-      <c r="R2" t="n">
-        <v>109</v>
-      </c>
-      <c r="S2" t="n">
-        <v>9</v>
-      </c>
       <c r="T2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="V2" t="n">
+        <v>43</v>
+      </c>
+      <c r="W2" t="n">
+        <v>42</v>
+      </c>
+      <c r="X2" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AH2" t="n">
         <v>38</v>
       </c>
-      <c r="W2" t="n">
-        <v>37</v>
-      </c>
-      <c r="X2" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>47</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>49</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>40</v>
-      </c>
       <c r="AI2" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="AJ2" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="AK2" t="n">
         <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>447.6328370286486</v>
+        <v>378.6129536684525</v>
       </c>
       <c r="AM2" t="n">
         <v>1</v>
@@ -3397,112 +3445,64 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C3" t="n">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
         <v>7</v>
       </c>
       <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
         <v>5</v>
       </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="n">
-        <v>11</v>
-      </c>
-      <c r="I3" t="n">
-        <v>15</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10</v>
-      </c>
-      <c r="K3" t="n">
+      <c r="N3" t="n">
+        <v>13</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12</v>
+      </c>
+      <c r="P3" t="n">
         <v>14</v>
       </c>
-      <c r="L3" t="n">
-        <v>13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>12</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>8</v>
-      </c>
-      <c r="P3" t="n">
-        <v>20</v>
-      </c>
       <c r="Q3" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="R3" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>53</v>
+        <v>208.1948258644542</v>
       </c>
       <c r="U3" t="n">
-        <v>54</v>
-      </c>
-      <c r="V3" t="n">
-        <v>57</v>
-      </c>
-      <c r="W3" t="n">
-        <v>55</v>
-      </c>
-      <c r="X3" t="n">
-        <v>58</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>60</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>63</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>62</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>64</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>66</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>61</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>52</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>56</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>35</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>574.0427650851771</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3510,78 +3510,108 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
+        <v>89</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69</v>
+      </c>
+      <c r="E4" t="n">
+        <v>70</v>
+      </c>
+      <c r="F4" t="n">
+        <v>71</v>
+      </c>
+      <c r="G4" t="n">
+        <v>75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>72</v>
+      </c>
+      <c r="I4" t="n">
+        <v>74</v>
+      </c>
+      <c r="J4" t="n">
+        <v>73</v>
+      </c>
+      <c r="K4" t="n">
+        <v>77</v>
+      </c>
+      <c r="L4" t="n">
+        <v>76</v>
+      </c>
+      <c r="M4" t="n">
+        <v>78</v>
+      </c>
+      <c r="N4" t="n">
+        <v>80</v>
+      </c>
+      <c r="O4" t="n">
+        <v>68</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>79</v>
+      </c>
+      <c r="R4" t="n">
+        <v>52</v>
+      </c>
+      <c r="S4" t="n">
+        <v>54</v>
+      </c>
+      <c r="T4" t="n">
+        <v>58</v>
+      </c>
+      <c r="U4" t="n">
+        <v>55</v>
+      </c>
+      <c r="V4" t="n">
+        <v>60</v>
+      </c>
+      <c r="W4" t="n">
+        <v>64</v>
+      </c>
+      <c r="X4" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>59</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>61</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>66</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>56</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>63</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>414.4601018210818</v>
+      </c>
+      <c r="AG4" t="n">
         <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16</v>
-      </c>
-      <c r="E4" t="n">
-        <v>19</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22</v>
-      </c>
-      <c r="G4" t="n">
-        <v>24</v>
-      </c>
-      <c r="H4" t="n">
-        <v>25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>23</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36</v>
-      </c>
-      <c r="M4" t="n">
-        <v>34</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30</v>
-      </c>
-      <c r="O4" t="n">
-        <v>27</v>
-      </c>
-      <c r="P4" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>33</v>
-      </c>
-      <c r="R4" t="n">
-        <v>29</v>
-      </c>
-      <c r="S4" t="n">
-        <v>44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>260.5017147125492</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1531.791881279809</v>
+        <v>1378.162516669606</v>
       </c>
       <c r="B5" t="n">
-        <v>1.039583683013916</v>
+        <v>0.5850255489349365</v>
       </c>
     </row>
   </sheetData>
@@ -3595,7 +3625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3608,75 +3638,72 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1" t="n">
+        <v>25</v>
+      </c>
+      <c r="E1" t="n">
+        <v>27</v>
+      </c>
+      <c r="F1" t="n">
+        <v>24</v>
+      </c>
+      <c r="G1" t="n">
+        <v>29</v>
+      </c>
+      <c r="H1" t="n">
+        <v>30</v>
+      </c>
+      <c r="I1" t="n">
+        <v>26</v>
+      </c>
+      <c r="J1" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1" t="n">
         <v>21</v>
       </c>
-      <c r="C1" t="n">
-        <v>20</v>
-      </c>
-      <c r="D1" t="n">
-        <v>24</v>
-      </c>
-      <c r="E1" t="n">
-        <v>25</v>
-      </c>
-      <c r="F1" t="n">
-        <v>22</v>
-      </c>
-      <c r="G1" t="n">
-        <v>23</v>
-      </c>
-      <c r="H1" t="n">
-        <v>26</v>
-      </c>
-      <c r="I1" t="n">
-        <v>28</v>
-      </c>
-      <c r="J1" t="n">
-        <v>27</v>
-      </c>
-      <c r="K1" t="n">
-        <v>30</v>
-      </c>
       <c r="L1" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="M1" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="N1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O1" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="P1" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="Q1" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="R1" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="S1" t="n">
+        <v>16</v>
+      </c>
+      <c r="T1" t="n">
         <v>100</v>
       </c>
-      <c r="T1" t="n">
-        <v>97</v>
-      </c>
       <c r="U1" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="V1" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="W1" t="n">
-        <v>0</v>
+        <v>192.3990282390057</v>
       </c>
       <c r="X1" t="n">
-        <v>273.3652206129169</v>
-      </c>
-      <c r="Y1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,69 +3715,75 @@
         <v>67</v>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D2" t="n">
+        <v>66</v>
+      </c>
+      <c r="E2" t="n">
         <v>62</v>
       </c>
-      <c r="E2" t="n">
-        <v>66</v>
-      </c>
       <c r="F2" t="n">
+        <v>61</v>
+      </c>
+      <c r="G2" t="n">
+        <v>72</v>
+      </c>
+      <c r="H2" t="n">
+        <v>74</v>
+      </c>
+      <c r="I2" t="n">
         <v>64</v>
       </c>
-      <c r="G2" t="n">
-        <v>61</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>68</v>
-      </c>
-      <c r="I2" t="n">
-        <v>72</v>
-      </c>
-      <c r="J2" t="n">
-        <v>74</v>
       </c>
       <c r="K2" t="n">
         <v>69</v>
       </c>
       <c r="L2" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="O2" t="n">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="P2" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="Q2" t="n">
+        <v>58</v>
+      </c>
+      <c r="R2" t="n">
         <v>56</v>
-      </c>
-      <c r="R2" t="n">
-        <v>58</v>
       </c>
       <c r="S2" t="n">
         <v>53</v>
       </c>
       <c r="T2" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U2" t="n">
         <v>55</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="W2" t="n">
-        <v>187.9947164452547</v>
+        <v>77</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>279.6051764934157</v>
+      </c>
+      <c r="Z2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3759,37 +3792,37 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F3" t="n">
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>10</v>
@@ -3801,46 +3834,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>95</v>
+        <v>118.5884135535135</v>
       </c>
       <c r="R3" t="n">
-        <v>81</v>
-      </c>
-      <c r="S3" t="n">
-        <v>78</v>
-      </c>
-      <c r="T3" t="n">
-        <v>77</v>
-      </c>
-      <c r="U3" t="n">
-        <v>73</v>
-      </c>
-      <c r="V3" t="n">
-        <v>70</v>
-      </c>
-      <c r="W3" t="n">
-        <v>71</v>
-      </c>
-      <c r="X3" t="n">
-        <v>79</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>285.8257896635258</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3848,63 +3848,66 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C4" t="n">
         <v>47</v>
       </c>
-      <c r="C4" t="n">
-        <v>43</v>
-      </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
+        <v>44</v>
+      </c>
+      <c r="F4" t="n">
+        <v>45</v>
+      </c>
+      <c r="G4" t="n">
         <v>42</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>40</v>
-      </c>
-      <c r="G4" t="n">
-        <v>45</v>
-      </c>
-      <c r="H4" t="n">
-        <v>44</v>
       </c>
       <c r="I4" t="n">
         <v>48</v>
       </c>
       <c r="J4" t="n">
+        <v>51</v>
+      </c>
+      <c r="K4" t="n">
         <v>50</v>
       </c>
-      <c r="K4" t="n">
-        <v>51</v>
-      </c>
       <c r="L4" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M4" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N4" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="O4" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="P4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R4" t="n">
+        <v>70</v>
+      </c>
+      <c r="S4" t="n">
         <v>92</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
       <c r="T4" t="n">
-        <v>204.2914354243032</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
+        <v>280.1150790425355</v>
+      </c>
+      <c r="V4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3922,42 +3925,39 @@
         <v>91</v>
       </c>
       <c r="E5" t="n">
+        <v>87</v>
+      </c>
+      <c r="F5" t="n">
         <v>88</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>85</v>
-      </c>
-      <c r="G5" t="n">
-        <v>84</v>
       </c>
       <c r="H5" t="n">
         <v>86</v>
       </c>
       <c r="I5" t="n">
+        <v>84</v>
+      </c>
+      <c r="J5" t="n">
         <v>83</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>82</v>
       </c>
-      <c r="K5" t="n">
-        <v>87</v>
-      </c>
       <c r="L5" t="n">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>130.3203486626591</v>
       </c>
       <c r="P5" t="n">
-        <v>123.853738873177</v>
-      </c>
-      <c r="Q5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3966,51 +3966,81 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H6" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="M6" t="n">
-        <v>137.846070228669</v>
+        <v>95</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>94</v>
+      </c>
+      <c r="O6" t="n">
+        <v>93</v>
+      </c>
+      <c r="P6" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>96</v>
+      </c>
+      <c r="R6" t="n">
+        <v>78</v>
+      </c>
+      <c r="S6" t="n">
+        <v>76</v>
+      </c>
+      <c r="T6" t="n">
+        <v>71</v>
+      </c>
+      <c r="U6" t="n">
+        <v>73</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>285.7906125731737</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1213.176971247847</v>
+        <v>1286.818658564303</v>
       </c>
       <c r="B7" t="n">
-        <v>0.7869503498077393</v>
+        <v>0.4256279468536377</v>
       </c>
     </row>
   </sheetData>
@@ -4024,7 +4054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4037,75 +4067,78 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1" t="n">
         <v>21</v>
       </c>
-      <c r="C1" t="n">
+      <c r="D1" t="n">
         <v>22</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
         <v>23</v>
       </c>
-      <c r="E1" t="n">
+      <c r="F1" t="n">
         <v>25</v>
       </c>
-      <c r="F1" t="n">
+      <c r="G1" t="n">
         <v>24</v>
       </c>
-      <c r="G1" t="n">
+      <c r="H1" t="n">
+        <v>29</v>
+      </c>
+      <c r="I1" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1" t="n">
         <v>26</v>
       </c>
-      <c r="H1" t="n">
-        <v>27</v>
-      </c>
-      <c r="I1" t="n">
-        <v>29</v>
-      </c>
-      <c r="J1" t="n">
+      <c r="L1" t="n">
         <v>28</v>
       </c>
-      <c r="K1" t="n">
-        <v>20</v>
-      </c>
-      <c r="L1" t="n">
-        <v>30</v>
-      </c>
       <c r="M1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1" t="n">
         <v>32</v>
       </c>
-      <c r="N1" t="n">
-        <v>0</v>
-      </c>
       <c r="O1" t="n">
+        <v>33</v>
+      </c>
+      <c r="P1" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>36</v>
+      </c>
+      <c r="R1" t="n">
+        <v>39</v>
+      </c>
+      <c r="S1" t="n">
+        <v>38</v>
+      </c>
+      <c r="T1" t="n">
+        <v>49</v>
+      </c>
+      <c r="U1" t="n">
         <v>59</v>
       </c>
-      <c r="P1" t="n">
-        <v>57</v>
-      </c>
-      <c r="Q1" t="n">
+      <c r="V1" t="n">
         <v>55</v>
       </c>
-      <c r="R1" t="n">
-        <v>53</v>
-      </c>
-      <c r="S1" t="n">
-        <v>56</v>
-      </c>
-      <c r="T1" t="n">
-        <v>58</v>
-      </c>
-      <c r="U1" t="n">
-        <v>54</v>
-      </c>
-      <c r="V1" t="n">
+      <c r="W1" t="n">
         <v>60</v>
       </c>
-      <c r="W1" t="n">
-        <v>0</v>
-      </c>
       <c r="X1" t="n">
-        <v>224.4534428018878</v>
+        <v>0</v>
       </c>
       <c r="Y1" t="n">
+        <v>224.7207407861301</v>
+      </c>
+      <c r="Z1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4114,78 +4147,75 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" t="n">
         <v>63</v>
       </c>
       <c r="D2" t="n">
+        <v>65</v>
+      </c>
+      <c r="E2" t="n">
+        <v>66</v>
+      </c>
+      <c r="F2" t="n">
         <v>62</v>
       </c>
-      <c r="E2" t="n">
-        <v>74</v>
-      </c>
-      <c r="F2" t="n">
-        <v>61</v>
-      </c>
       <c r="G2" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H2" t="n">
         <v>64</v>
       </c>
       <c r="I2" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J2" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" t="n">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="O2" t="n">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="P2" t="n">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="Q2" t="n">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="R2" t="n">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="S2" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="T2" t="n">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="U2" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="V2" t="n">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="W2" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>250.6396784552268</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7595065267773</v>
-      </c>
-      <c r="Z2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4194,58 +4224,58 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
+        <v>75</v>
+      </c>
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
         <v>4</v>
       </c>
-      <c r="E3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" t="n">
         <v>9</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>11</v>
       </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2</v>
-      </c>
       <c r="L3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
-        <v>10</v>
-      </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="P3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>189.4685460532366</v>
+        <v>125.1347554329342</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4256,28 +4286,28 @@
         <v>47</v>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D4" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F4" t="n">
         <v>44</v>
       </c>
       <c r="G4" t="n">
+        <v>40</v>
+      </c>
+      <c r="H4" t="n">
         <v>42</v>
       </c>
-      <c r="H4" t="n">
-        <v>45</v>
-      </c>
       <c r="I4" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J4" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="K4" t="n">
         <v>50</v>
@@ -4301,42 +4331,15 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>78</v>
+        <v>204.0111226498944</v>
       </c>
       <c r="U4" t="n">
-        <v>76</v>
-      </c>
-      <c r="V4" t="n">
-        <v>73</v>
-      </c>
-      <c r="W4" t="n">
-        <v>70</v>
-      </c>
-      <c r="X4" t="n">
-        <v>71</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>77</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>79</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>329.6070775815548</v>
-      </c>
-      <c r="AD4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4345,43 +4348,76 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="G5" t="n">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="H5" t="n">
+        <v>84</v>
+      </c>
+      <c r="I5" t="n">
+        <v>83</v>
+      </c>
+      <c r="J5" t="n">
+        <v>82</v>
+      </c>
+      <c r="K5" t="n">
+        <v>85</v>
+      </c>
+      <c r="L5" t="n">
+        <v>95</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>18</v>
+      </c>
+      <c r="O5" t="n">
         <v>17</v>
       </c>
-      <c r="I5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>145.0591495620599</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
+      <c r="P5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>19</v>
+      </c>
+      <c r="R5" t="n">
+        <v>81</v>
+      </c>
+      <c r="S5" t="n">
+        <v>78</v>
+      </c>
+      <c r="T5" t="n">
+        <v>71</v>
+      </c>
+      <c r="U5" t="n">
+        <v>76</v>
+      </c>
+      <c r="V5" t="n">
+        <v>70</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>330.1531111529395</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4389,57 +4425,51 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C6" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D6" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E6" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F6" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G6" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="I6" t="n">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="K6" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>144.321100550959</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>132.0744819671185</v>
-      </c>
-      <c r="P6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1284.422204492635</v>
+        <v>1278.980509028084</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8070523738861084</v>
+        <v>0.437544584274292</v>
       </c>
     </row>
   </sheetData>
@@ -4481,51 +4511,36 @@
         <v>45</v>
       </c>
       <c r="G1" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="H1" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="I1" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="J1" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="K1" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="L1" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="M1" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="N1" t="n">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="O1" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="P1" t="n">
-        <v>70</v>
+        <v>124.6441129909074</v>
       </c>
       <c r="Q1" t="n">
-        <v>37</v>
-      </c>
-      <c r="R1" t="n">
-        <v>20</v>
-      </c>
-      <c r="S1" t="n">
-        <v>15</v>
-      </c>
-      <c r="T1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U1" t="n">
-        <v>167.9672219586968</v>
-      </c>
-      <c r="V1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4540,57 +4555,60 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
+        <v>63</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>73</v>
+      </c>
+      <c r="J2" t="n">
+        <v>62</v>
+      </c>
+      <c r="K2" t="n">
         <v>72</v>
       </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K2" t="n">
-        <v>13</v>
-      </c>
       <c r="L2" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P2" t="n">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>64</v>
+      </c>
+      <c r="R2" t="n">
+        <v>50</v>
+      </c>
+      <c r="S2" t="n">
         <v>61</v>
       </c>
-      <c r="Q2" t="n">
-        <v>28</v>
-      </c>
-      <c r="R2" t="n">
-        <v>55</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
-        <v>301.7777183471271</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>342.037261348626</v>
+      </c>
+      <c r="V2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4599,60 +4617,57 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
         <v>75</v>
       </c>
-      <c r="D3" t="n">
-        <v>68</v>
-      </c>
       <c r="E3" t="n">
+        <v>30</v>
+      </c>
+      <c r="F3" t="n">
         <v>2</v>
       </c>
-      <c r="F3" t="n">
-        <v>30</v>
-      </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="I3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="K3" t="n">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="M3" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="N3" t="n">
+        <v>24</v>
+      </c>
+      <c r="O3" t="n">
+        <v>18</v>
+      </c>
+      <c r="P3" t="n">
         <v>25</v>
       </c>
-      <c r="O3" t="n">
-        <v>50</v>
-      </c>
-      <c r="P3" t="n">
-        <v>18</v>
-      </c>
       <c r="Q3" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>210.5018949978011</v>
       </c>
       <c r="S3" t="n">
-        <v>235.9034365581147</v>
-      </c>
-      <c r="T3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4661,60 +4676,66 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
-        <v>16</v>
-      </c>
       <c r="E4" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H4" t="n">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="L4" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M4" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="Q4" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="S4" t="n">
-        <v>269.7838383631918</v>
+        <v>13</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>228.2828367520879</v>
+      </c>
+      <c r="V4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4726,57 +4747,66 @@
         <v>46</v>
       </c>
       <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
         <v>35</v>
       </c>
-      <c r="D5" t="n">
-        <v>53</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" t="n">
+        <v>54</v>
+      </c>
+      <c r="H5" t="n">
+        <v>57</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15</v>
+      </c>
+      <c r="J5" t="n">
+        <v>29</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>14</v>
       </c>
-      <c r="F5" t="n">
+      <c r="N5" t="n">
         <v>59</v>
       </c>
-      <c r="G5" t="n">
-        <v>19</v>
-      </c>
-      <c r="H5" t="n">
-        <v>65</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>24</v>
-      </c>
-      <c r="K5" t="n">
-        <v>43</v>
-      </c>
-      <c r="L5" t="n">
-        <v>41</v>
-      </c>
-      <c r="M5" t="n">
-        <v>56</v>
-      </c>
-      <c r="N5" t="n">
-        <v>64</v>
-      </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="P5" t="n">
-        <v>257.5095749813866</v>
+        <v>31</v>
       </c>
       <c r="Q5" t="n">
+        <v>55</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>286.8192122236923</v>
+      </c>
+      <c r="T5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1232.941790208517</v>
+        <v>1192.285318313115</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4847941398620605</v>
+        <v>0.2589166164398193</v>
       </c>
     </row>
   </sheetData>
@@ -4790,7 +4820,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,57 +4833,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C1" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D1" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E1" t="n">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F1" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G1" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="H1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I1" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1" t="n">
+        <v>54</v>
+      </c>
+      <c r="L1" t="n">
+        <v>57</v>
+      </c>
+      <c r="M1" t="n">
+        <v>20</v>
+      </c>
+      <c r="N1" t="n">
+        <v>70</v>
+      </c>
+      <c r="O1" t="n">
+        <v>15</v>
+      </c>
+      <c r="P1" t="n">
+        <v>60</v>
+      </c>
+      <c r="Q1" t="n">
         <v>61</v>
       </c>
-      <c r="I1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J1" t="n">
-        <v>39</v>
-      </c>
-      <c r="K1" t="n">
-        <v>31</v>
-      </c>
-      <c r="L1" t="n">
-        <v>9</v>
-      </c>
-      <c r="M1" t="n">
-        <v>62</v>
-      </c>
-      <c r="N1" t="n">
-        <v>42</v>
-      </c>
-      <c r="O1" t="n">
-        <v>64</v>
-      </c>
-      <c r="P1" t="n">
+      <c r="R1" t="n">
         <v>22</v>
       </c>
-      <c r="Q1" t="n">
-        <v>0</v>
-      </c>
-      <c r="R1" t="n">
-        <v>247.2052505761321</v>
-      </c>
       <c r="S1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1" t="n">
+        <v>217.9569010553505</v>
+      </c>
+      <c r="U1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4862,51 +4898,57 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="J2" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>19</v>
+      </c>
+      <c r="L2" t="n">
+        <v>59</v>
+      </c>
+      <c r="M2" t="n">
         <v>14</v>
       </c>
-      <c r="L2" t="n">
-        <v>11</v>
-      </c>
-      <c r="M2" t="n">
-        <v>19</v>
-      </c>
       <c r="N2" t="n">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="P2" t="n">
-        <v>186.085133149522</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>213.993965945092</v>
+      </c>
+      <c r="S2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4915,28 +4957,28 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G3" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I3" t="n">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J3" t="n">
         <v>72</v>
@@ -4945,37 +4987,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>20</v>
+        <v>119.7473589731438</v>
       </c>
       <c r="N3" t="n">
-        <v>60</v>
-      </c>
-      <c r="O3" t="n">
-        <v>70</v>
-      </c>
-      <c r="P3" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>47</v>
-      </c>
-      <c r="R3" t="n">
-        <v>69</v>
-      </c>
-      <c r="S3" t="n">
-        <v>59</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>303.9685870503307</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4983,57 +5001,54 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G4" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>10</v>
+      </c>
+      <c r="L4" t="n">
+        <v>31</v>
+      </c>
+      <c r="M4" t="n">
         <v>58</v>
       </c>
-      <c r="L4" t="n">
-        <v>10</v>
-      </c>
-      <c r="M4" t="n">
-        <v>65</v>
-      </c>
       <c r="N4" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="P4" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>269.183490784066</v>
       </c>
       <c r="R4" t="n">
-        <v>190.7264463030705</v>
-      </c>
-      <c r="S4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5042,43 +5057,61 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="G5" t="n">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="H5" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
+        <v>47</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>33</v>
+      </c>
+      <c r="L5" t="n">
+        <v>62</v>
+      </c>
+      <c r="M5" t="n">
+        <v>28</v>
+      </c>
+      <c r="N5" t="n">
         <v>48</v>
       </c>
-      <c r="J5" t="n">
-        <v>71</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>139.1793160021635</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
+      <c r="O5" t="n">
+        <v>73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>53</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>228.5615107457005</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -5089,48 +5122,45 @@
         <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="H6" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I6" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>112.3578430048497</v>
       </c>
       <c r="M6" t="n">
-        <v>135.2826102630494</v>
-      </c>
-      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1202.447343344268</v>
+        <v>1161.801070508202</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4978244304656982</v>
+        <v>0.288482666015625</v>
       </c>
     </row>
   </sheetData>
@@ -5144,7 +5174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5169,46 +5199,46 @@
         <v>27</v>
       </c>
       <c r="F1" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="G1" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H1" t="n">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="I1" t="n">
         <v>0</v>
       </c>
       <c r="J1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K1" t="n">
+        <v>18</v>
+      </c>
+      <c r="L1" t="n">
+        <v>25</v>
+      </c>
+      <c r="M1" t="n">
         <v>24</v>
       </c>
-      <c r="L1" t="n">
-        <v>41</v>
-      </c>
-      <c r="M1" t="n">
-        <v>64</v>
-      </c>
       <c r="N1" t="n">
+        <v>23</v>
+      </c>
+      <c r="O1" t="n">
+        <v>49</v>
+      </c>
+      <c r="P1" t="n">
+        <v>56</v>
+      </c>
+      <c r="Q1" t="n">
         <v>43</v>
       </c>
-      <c r="O1" t="n">
-        <v>62</v>
-      </c>
-      <c r="P1" t="n">
-        <v>61</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>15</v>
-      </c>
       <c r="R1" t="n">
         <v>0</v>
       </c>
       <c r="S1" t="n">
-        <v>241.0219550919791</v>
+        <v>216.1403355036464</v>
       </c>
       <c r="T1" t="n">
         <v>1</v>
@@ -5219,39 +5249,42 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E2" t="n">
+        <v>17</v>
+      </c>
+      <c r="F2" t="n">
+        <v>51</v>
+      </c>
+      <c r="G2" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" t="n">
         <v>68</v>
       </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>74</v>
       </c>
-      <c r="G2" t="n">
-        <v>28</v>
-      </c>
-      <c r="H2" t="n">
-        <v>22</v>
-      </c>
-      <c r="I2" t="n">
-        <v>71</v>
-      </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.8269135507406</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>117.6852669483025</v>
+      </c>
+      <c r="N2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5260,52 +5293,37 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="F3" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H3" t="n">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="I3" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>105.8477227933713</v>
       </c>
       <c r="L3" t="n">
-        <v>11</v>
-      </c>
-      <c r="M3" t="n">
-        <v>66</v>
-      </c>
-      <c r="N3" t="n">
-        <v>31</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>201.4390520275116</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5313,57 +5331,63 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
+        <v>53</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14</v>
+      </c>
+      <c r="G4" t="n">
+        <v>19</v>
+      </c>
+      <c r="H4" t="n">
         <v>35</v>
       </c>
-      <c r="F4" t="n">
-        <v>7</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14</v>
-      </c>
-      <c r="H4" t="n">
-        <v>53</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L4" t="n">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="M4" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="N4" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="O4" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="P4" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R4" t="n">
-        <v>201.7362024386827</v>
+        <v>55</v>
       </c>
       <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>327.7149932336614</v>
+      </c>
+      <c r="U4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5372,45 +5396,54 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D5" t="n">
         <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G5" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I5" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="L5" t="n">
+        <v>66</v>
+      </c>
+      <c r="M5" t="n">
+        <v>65</v>
+      </c>
+      <c r="N5" t="n">
+        <v>54</v>
+      </c>
+      <c r="O5" t="n">
         <v>59</v>
       </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>189.0921208001372</v>
-      </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>231.669977284169</v>
+      </c>
+      <c r="R5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5419,39 +5452,33 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G6" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>111.8096620185813</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>114.2660037827363</v>
-      </c>
-      <c r="M6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5460,48 +5487,51 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="I7" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>122.1484542858779</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
+        <v>117.0182032178592</v>
+      </c>
+      <c r="N7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1189.530701977665</v>
+        <v>1227.886160999591</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5231528282165527</v>
+        <v>0.2972323894500732</v>
       </c>
     </row>
   </sheetData>
@@ -5515,7 +5545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5528,82 +5558,94 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1" t="n">
+        <v>28</v>
+      </c>
+      <c r="D1" t="n">
         <v>53</v>
       </c>
-      <c r="C1" t="n">
+      <c r="E1" t="n">
         <v>58</v>
       </c>
-      <c r="D1" t="n">
+      <c r="F1" t="n">
         <v>40</v>
       </c>
-      <c r="E1" t="n">
+      <c r="G1" t="n">
         <v>26</v>
       </c>
-      <c r="F1" t="n">
-        <v>28</v>
-      </c>
-      <c r="G1" t="n">
-        <v>27</v>
-      </c>
       <c r="H1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I1" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J1" t="n">
+        <v>77</v>
+      </c>
+      <c r="K1" t="n">
+        <v>68</v>
+      </c>
+      <c r="L1" t="n">
+        <v>80</v>
+      </c>
+      <c r="M1" t="n">
+        <v>3</v>
+      </c>
+      <c r="N1" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>88</v>
+      </c>
+      <c r="R1" t="n">
         <v>7</v>
       </c>
-      <c r="K1" t="n">
+      <c r="S1" t="n">
+        <v>48</v>
+      </c>
+      <c r="T1" t="n">
         <v>82</v>
       </c>
-      <c r="L1" t="n">
-        <v>88</v>
-      </c>
-      <c r="M1" t="n">
-        <v>31</v>
-      </c>
-      <c r="N1" t="n">
-        <v>69</v>
-      </c>
-      <c r="O1" t="n">
+      <c r="U1" t="n">
+        <v>47</v>
+      </c>
+      <c r="V1" t="n">
+        <v>36</v>
+      </c>
+      <c r="W1" t="n">
+        <v>49</v>
+      </c>
+      <c r="X1" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>63</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>292.6262404873356</v>
+      </c>
+      <c r="AE1" t="n">
         <v>1</v>
-      </c>
-      <c r="P1" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>30</v>
-      </c>
-      <c r="R1" t="n">
-        <v>20</v>
-      </c>
-      <c r="S1" t="n">
-        <v>51</v>
-      </c>
-      <c r="T1" t="n">
-        <v>33</v>
-      </c>
-      <c r="U1" t="n">
-        <v>79</v>
-      </c>
-      <c r="V1" t="n">
-        <v>3</v>
-      </c>
-      <c r="W1" t="n">
-        <v>76</v>
-      </c>
-      <c r="X1" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>181.962312201241</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -5611,94 +5653,97 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
+        <v>94</v>
+      </c>
+      <c r="D2" t="n">
         <v>95</v>
-      </c>
-      <c r="D2" t="n">
-        <v>97</v>
       </c>
       <c r="E2" t="n">
         <v>92</v>
       </c>
       <c r="F2" t="n">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H2" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I2" t="n">
         <v>85</v>
       </c>
       <c r="J2" t="n">
+        <v>91</v>
+      </c>
+      <c r="K2" t="n">
         <v>98</v>
       </c>
-      <c r="K2" t="n">
-        <v>59</v>
-      </c>
       <c r="L2" t="n">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="M2" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>69</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
         <v>50</v>
       </c>
-      <c r="Q2" t="n">
-        <v>81</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
+        <v>79</v>
+      </c>
+      <c r="T2" t="n">
         <v>78</v>
-      </c>
-      <c r="S2" t="n">
-        <v>9</v>
-      </c>
-      <c r="T2" t="n">
-        <v>35</v>
       </c>
       <c r="U2" t="n">
         <v>34</v>
       </c>
       <c r="V2" t="n">
+        <v>81</v>
+      </c>
+      <c r="W2" t="n">
+        <v>33</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y2" t="n">
         <v>71</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Z2" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="n">
         <v>65</v>
       </c>
-      <c r="X2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>54</v>
-      </c>
       <c r="AB2" t="n">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>269.6349144704782</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>215.2536791406114</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5706,90 +5751,99 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>84</v>
+      </c>
+      <c r="H3" t="n">
+        <v>83</v>
+      </c>
+      <c r="I3" t="n">
+        <v>45</v>
+      </c>
+      <c r="J3" t="n">
+        <v>17</v>
+      </c>
+      <c r="K3" t="n">
+        <v>61</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16</v>
+      </c>
+      <c r="M3" t="n">
+        <v>86</v>
+      </c>
+      <c r="N3" t="n">
+        <v>44</v>
+      </c>
+      <c r="O3" t="n">
         <v>42</v>
       </c>
-      <c r="G3" t="n">
+      <c r="P3" t="n">
         <v>57</v>
       </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="Q3" t="n">
+        <v>55</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>21</v>
+      </c>
+      <c r="T3" t="n">
         <v>73</v>
       </c>
-      <c r="J3" t="n">
-        <v>72</v>
-      </c>
-      <c r="K3" t="n">
-        <v>21</v>
-      </c>
-      <c r="L3" t="n">
-        <v>74</v>
-      </c>
-      <c r="M3" t="n">
-        <v>75</v>
-      </c>
-      <c r="N3" t="n">
-        <v>22</v>
-      </c>
-      <c r="O3" t="n">
-        <v>56</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="U3" t="n">
+        <v>23</v>
+      </c>
+      <c r="V3" t="n">
+        <v>67</v>
+      </c>
+      <c r="W3" t="n">
+        <v>39</v>
+      </c>
+      <c r="X3" t="n">
         <v>4</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>77</v>
-      </c>
-      <c r="S3" t="n">
-        <v>66</v>
-      </c>
-      <c r="T3" t="n">
-        <v>19</v>
-      </c>
-      <c r="U3" t="n">
-        <v>48</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="Y3" t="n">
+        <v>54</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC3" t="n">
         <v>62</v>
       </c>
-      <c r="W3" t="n">
-        <v>5</v>
-      </c>
-      <c r="X3" t="n">
-        <v>61</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>86</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>43</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>337.7715182832819</v>
-      </c>
       <c r="AD3" t="n">
+        <v>64</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>393.0024057965449</v>
+      </c>
+      <c r="AG3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5798,105 +5852,81 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D4" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F4" t="n">
+        <v>15</v>
+      </c>
+      <c r="G4" t="n">
+        <v>43</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14</v>
+      </c>
+      <c r="I4" t="n">
+        <v>38</v>
+      </c>
+      <c r="J4" t="n">
+        <v>41</v>
+      </c>
+      <c r="K4" t="n">
+        <v>74</v>
+      </c>
+      <c r="L4" t="n">
+        <v>22</v>
+      </c>
+      <c r="M4" t="n">
+        <v>75</v>
+      </c>
+      <c r="N4" t="n">
+        <v>72</v>
+      </c>
+      <c r="O4" t="n">
+        <v>56</v>
+      </c>
+      <c r="P4" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>30</v>
+      </c>
+      <c r="S4" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" t="n">
         <v>8</v>
       </c>
-      <c r="G4" t="n">
-        <v>45</v>
-      </c>
-      <c r="H4" t="n">
-        <v>46</v>
-      </c>
-      <c r="I4" t="n">
-        <v>47</v>
-      </c>
-      <c r="J4" t="n">
-        <v>36</v>
-      </c>
-      <c r="K4" t="n">
-        <v>49</v>
-      </c>
-      <c r="L4" t="n">
-        <v>64</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11</v>
-      </c>
-      <c r="N4" t="n">
-        <v>63</v>
-      </c>
-      <c r="O4" t="n">
-        <v>90</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="U4" t="n">
         <v>32</v>
       </c>
-      <c r="Q4" t="n">
-        <v>10</v>
-      </c>
-      <c r="R4" t="n">
-        <v>17</v>
-      </c>
-      <c r="S4" t="n">
-        <v>55</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>16</v>
-      </c>
       <c r="V4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>14</v>
+        <v>391.1589962997627</v>
       </c>
       <c r="X4" t="n">
-        <v>38</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>39</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>452.3762777297313</v>
-      </c>
-      <c r="AF4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1241.745022684732</v>
+        <v>1292.041321724255</v>
       </c>
       <c r="B5" t="n">
-        <v>0.8486652374267578</v>
+        <v>0.4433026313781738</v>
       </c>
     </row>
   </sheetData>

--- a/Trabajos/Trabajo_1/Code/mtVRP_Cristian_Alzate_Urrea_GRASP.xlsx
+++ b/Trabajos/Trabajo_1/Code/mtVRP_Cristian_Alzate_Urrea_GRASP.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mtVRP1.txt" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="mtVRP10.txt" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="mtVRP11.txt" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="mtVRP12.txt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="mtVRP2.txt" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="mtVRP3.txt" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="mtVRP4.txt" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="mtVRP5.txt" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="mtVRP6.txt" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mtVRP7.txt" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mtVRP8.txt" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mtVRP9.txt" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP1.txt" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP10.txt" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP11.txt" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP12.txt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP2.txt" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP3.txt" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP4.txt" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP5.txt" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP6.txt" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP7.txt" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP8.txt" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mtVRP9.txt" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -443,7 +443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,69 +456,96 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
+        <v>53</v>
+      </c>
+      <c r="C1" t="n">
+        <v>58</v>
+      </c>
+      <c r="D1" t="n">
+        <v>40</v>
+      </c>
+      <c r="E1" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G1" t="n">
+        <v>80</v>
+      </c>
+      <c r="H1" t="n">
+        <v>68</v>
+      </c>
+      <c r="I1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1" t="n">
+        <v>77</v>
+      </c>
+      <c r="K1" t="n">
+        <v>76</v>
+      </c>
+      <c r="L1" t="n">
+        <v>28</v>
+      </c>
+      <c r="M1" t="n">
         <v>27</v>
       </c>
-      <c r="C1" t="n">
-        <v>28</v>
-      </c>
-      <c r="D1" t="n">
-        <v>53</v>
-      </c>
-      <c r="E1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1" t="n">
-        <v>89</v>
-      </c>
-      <c r="G1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I1" t="n">
-        <v>84</v>
-      </c>
-      <c r="J1" t="n">
-        <v>83</v>
-      </c>
-      <c r="K1" t="n">
-        <v>8</v>
-      </c>
-      <c r="L1" t="n">
-        <v>82</v>
-      </c>
-      <c r="M1" t="n">
-        <v>48</v>
-      </c>
       <c r="N1" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="O1" t="n">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="P1" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="Q1" t="n">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="R1" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="S1" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="T1" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="U1" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="V1" t="n">
-        <v>225.3110901107668</v>
+        <v>29</v>
       </c>
       <c r="W1" t="n">
+        <v>34</v>
+      </c>
+      <c r="X1" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>71</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>66</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>226.3555181379196</v>
+      </c>
+      <c r="AF1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -527,111 +554,87 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
+        <v>99</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59</v>
+      </c>
+      <c r="H2" t="n">
+        <v>93</v>
+      </c>
+      <c r="I2" t="n">
+        <v>98</v>
+      </c>
+      <c r="J2" t="n">
+        <v>37</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>91</v>
+      </c>
+      <c r="M2" t="n">
+        <v>85</v>
+      </c>
+      <c r="N2" t="n">
+        <v>84</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>13</v>
+      </c>
+      <c r="R2" t="n">
         <v>72</v>
       </c>
-      <c r="G2" t="n">
-        <v>74</v>
-      </c>
-      <c r="H2" t="n">
-        <v>22</v>
-      </c>
-      <c r="I2" t="n">
-        <v>75</v>
-      </c>
-      <c r="J2" t="n">
-        <v>41</v>
-      </c>
-      <c r="K2" t="n">
-        <v>57</v>
-      </c>
-      <c r="L2" t="n">
-        <v>87</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97</v>
-      </c>
-      <c r="N2" t="n">
-        <v>92</v>
-      </c>
-      <c r="O2" t="n">
-        <v>37</v>
-      </c>
-      <c r="P2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>91</v>
-      </c>
-      <c r="R2" t="n">
-        <v>17</v>
-      </c>
       <c r="S2" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="T2" t="n">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="V2" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="W2" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>33</v>
+        <v>285.123921623012</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>62</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>378.0041973042731</v>
-      </c>
-      <c r="AK2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -640,93 +643,84 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>94</v>
       </c>
       <c r="D3" t="n">
+        <v>96</v>
+      </c>
+      <c r="E3" t="n">
+        <v>92</v>
+      </c>
+      <c r="F3" t="n">
+        <v>97</v>
+      </c>
+      <c r="G3" t="n">
+        <v>87</v>
+      </c>
+      <c r="H3" t="n">
         <v>95</v>
       </c>
-      <c r="E3" t="n">
-        <v>59</v>
-      </c>
-      <c r="F3" t="n">
-        <v>99</v>
-      </c>
-      <c r="G3" t="n">
-        <v>96</v>
-      </c>
-      <c r="H3" t="n">
-        <v>93</v>
-      </c>
       <c r="I3" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="J3" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="K3" t="n">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="M3" t="n">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="N3" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="O3" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="P3" t="n">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="Q3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="R3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S3" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="T3" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="W3" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="n">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="Z3" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>424.9253471311227</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>233.4782985300304</v>
-      </c>
-      <c r="AE3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,108 +729,102 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D4" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="G4" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="H4" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="J4" t="n">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="K4" t="n">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="L4" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M4" t="n">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="N4" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="R4" t="n">
+        <v>43</v>
+      </c>
+      <c r="S4" t="n">
+        <v>14</v>
+      </c>
+      <c r="T4" t="n">
         <v>86</v>
       </c>
-      <c r="S4" t="n">
-        <v>16</v>
-      </c>
-      <c r="T4" t="n">
-        <v>98</v>
-      </c>
       <c r="U4" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="V4" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="W4" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="X4" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="Z4" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="AA4" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="AB4" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="AC4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>371.5453883601107</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>337.199680526445</v>
-      </c>
-      <c r="AG4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1173.993266471515</v>
+        <v>1307.950175252165</v>
       </c>
       <c r="B5" t="n">
-        <v>0.425032377243042</v>
+        <v>0.5785999298095703</v>
       </c>
     </row>
   </sheetData>
@@ -866,67 +854,73 @@
         <v>103</v>
       </c>
       <c r="C1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D1" t="n">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E1" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F1" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G1" t="n">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="H1" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I1" t="n">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="J1" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="K1" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="L1" t="n">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="M1" t="n">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="N1" t="n">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="O1" t="n">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="P1" t="n">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="Q1" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="R1" t="n">
-        <v>134</v>
+        <v>58</v>
       </c>
       <c r="S1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="T1" t="n">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="U1" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="V1" t="n">
-        <v>229.7684103929106</v>
+        <v>13</v>
       </c>
       <c r="W1" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="X1" t="n">
+        <v>167.4021641134839</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -940,96 +934,99 @@
         <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="F2" t="n">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="G2" t="n">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="H2" t="n">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I2" t="n">
         <v>7</v>
       </c>
       <c r="J2" t="n">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="L2" t="n">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="N2" t="n">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="O2" t="n">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="P2" t="n">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="Q2" t="n">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="R2" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="T2" t="n">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="U2" t="n">
+        <v>107</v>
+      </c>
+      <c r="V2" t="n">
+        <v>65</v>
+      </c>
+      <c r="W2" t="n">
+        <v>93</v>
+      </c>
+      <c r="X2" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>92</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>64</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>136</v>
+      </c>
+      <c r="AC2" t="n">
         <v>111</v>
       </c>
-      <c r="V2" t="n">
-        <v>135</v>
-      </c>
-      <c r="W2" t="n">
-        <v>13</v>
-      </c>
-      <c r="X2" t="n">
-        <v>136</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="AD2" t="n">
+        <v>94</v>
+      </c>
+      <c r="AE2" t="n">
         <v>88</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AF2" t="n">
         <v>40</v>
       </c>
-      <c r="AA2" t="n">
-        <v>97</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>43</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>114</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
       <c r="AG2" t="n">
-        <v>418.1483076339081</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
+        <v>264.1010424563828</v>
+      </c>
+      <c r="AI2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1041,93 +1038,84 @@
         <v>77</v>
       </c>
       <c r="C3" t="n">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="D3" t="n">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="F3" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="I3" t="n">
-        <v>130</v>
+        <v>53</v>
       </c>
       <c r="J3" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="K3" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L3" t="n">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="M3" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="N3" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="O3" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P3" t="n">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="S3" t="n">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="T3" t="n">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="V3" t="n">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="W3" t="n">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="X3" t="n">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="Y3" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="Z3" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="AA3" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>117</v>
+        <v>361.47004732265</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>255.0747775822989</v>
-      </c>
-      <c r="AF3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,85 +1136,73 @@
         <v>144</v>
       </c>
       <c r="F4" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G4" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H4" t="n">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="J4" t="n">
-        <v>143</v>
+        <v>37</v>
       </c>
       <c r="K4" t="n">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="L4" t="n">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="M4" t="n">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="N4" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P4" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="n">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="R4" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S4" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="T4" t="n">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="U4" t="n">
+        <v>131</v>
+      </c>
+      <c r="V4" t="n">
+        <v>16</v>
+      </c>
+      <c r="W4" t="n">
         <v>2</v>
       </c>
-      <c r="V4" t="n">
-        <v>131</v>
-      </c>
-      <c r="W4" t="n">
-        <v>20</v>
-      </c>
       <c r="X4" t="n">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="Z4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>70</v>
+        <v>186.8615685964437</v>
       </c>
       <c r="AB4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>160.1587157911009</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1237,87 +1213,93 @@
         <v>139</v>
       </c>
       <c r="C5" t="n">
-        <v>68</v>
+        <v>146</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="F5" t="n">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="H5" t="n">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="J5" t="n">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="K5" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="L5" t="n">
         <v>141</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="O5" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="P5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="R5" t="n">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="S5" t="n">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="T5" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="U5" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="V5" t="n">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="W5" t="n">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="Y5" t="n">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="Z5" t="n">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="n">
-        <v>242.2093104390854</v>
+        <v>33</v>
       </c>
       <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>256.3541864460091</v>
+      </c>
+      <c r="AF5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1326,114 +1308,102 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="D6" t="n">
+        <v>48</v>
+      </c>
+      <c r="E6" t="n">
+        <v>112</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>80</v>
+      </c>
+      <c r="H6" t="n">
+        <v>28</v>
+      </c>
+      <c r="I6" t="n">
+        <v>70</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>121</v>
+      </c>
+      <c r="L6" t="n">
+        <v>115</v>
+      </c>
+      <c r="M6" t="n">
+        <v>83</v>
+      </c>
+      <c r="N6" t="n">
+        <v>101</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>71</v>
       </c>
-      <c r="E6" t="n">
+      <c r="Q6" t="n">
+        <v>122</v>
+      </c>
+      <c r="R6" t="n">
+        <v>125</v>
+      </c>
+      <c r="S6" t="n">
+        <v>91</v>
+      </c>
+      <c r="T6" t="n">
+        <v>45</v>
+      </c>
+      <c r="U6" t="n">
         <v>123</v>
       </c>
-      <c r="F6" t="n">
-        <v>124</v>
-      </c>
-      <c r="G6" t="n">
-        <v>33</v>
-      </c>
-      <c r="H6" t="n">
-        <v>72</v>
-      </c>
-      <c r="I6" t="n">
-        <v>91</v>
-      </c>
-      <c r="J6" t="n">
-        <v>45</v>
-      </c>
-      <c r="K6" t="n">
-        <v>107</v>
-      </c>
-      <c r="L6" t="n">
-        <v>44</v>
-      </c>
-      <c r="M6" t="n">
-        <v>137</v>
-      </c>
-      <c r="N6" t="n">
-        <v>17</v>
-      </c>
-      <c r="O6" t="n">
-        <v>145</v>
-      </c>
-      <c r="P6" t="n">
-        <v>147</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>105</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>10</v>
-      </c>
-      <c r="T6" t="n">
-        <v>122</v>
-      </c>
-      <c r="U6" t="n">
-        <v>125</v>
-      </c>
       <c r="V6" t="n">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="W6" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="X6" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y6" t="n">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="Z6" t="n">
-        <v>129</v>
+        <v>60</v>
       </c>
       <c r="AA6" t="n">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="AB6" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AC6" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>84</v>
+        <v>376.0996045885843</v>
       </c>
       <c r="AE6" t="n">
-        <v>31</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>344.1080705709603</v>
-      </c>
-      <c r="AI6" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1649.467592410264</v>
+        <v>1612.288613523554</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9322481155395508</v>
+        <v>1.258208274841309</v>
       </c>
     </row>
   </sheetData>
@@ -1447,7 +1417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:BF6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1466,129 +1436,135 @@
         <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="E1" t="n">
+        <v>149</v>
+      </c>
+      <c r="F1" t="n">
+        <v>51</v>
+      </c>
+      <c r="G1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H1" t="n">
+        <v>35</v>
+      </c>
+      <c r="I1" t="n">
+        <v>132</v>
+      </c>
+      <c r="J1" t="n">
+        <v>178</v>
+      </c>
+      <c r="K1" t="n">
+        <v>8</v>
+      </c>
+      <c r="L1" t="n">
+        <v>102</v>
+      </c>
+      <c r="M1" t="n">
+        <v>176</v>
+      </c>
+      <c r="N1" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1" t="n">
+        <v>78</v>
+      </c>
+      <c r="P1" t="n">
+        <v>123</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" t="n">
+      <c r="S1" t="n">
         <v>55</v>
       </c>
-      <c r="G1" t="n">
+      <c r="T1" t="n">
+        <v>106</v>
+      </c>
+      <c r="U1" t="n">
         <v>44</v>
       </c>
-      <c r="H1" t="n">
-        <v>106</v>
-      </c>
-      <c r="I1" t="n">
-        <v>181</v>
-      </c>
-      <c r="J1" t="n">
-        <v>63</v>
-      </c>
-      <c r="K1" t="n">
-        <v>107</v>
-      </c>
-      <c r="L1" t="n">
-        <v>24</v>
-      </c>
-      <c r="M1" t="n">
-        <v>74</v>
-      </c>
-      <c r="N1" t="n">
-        <v>49</v>
-      </c>
-      <c r="O1" t="n">
-        <v>144</v>
-      </c>
-      <c r="P1" t="n">
-        <v>116</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>23</v>
-      </c>
-      <c r="R1" t="n">
-        <v>160</v>
-      </c>
-      <c r="S1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T1" t="n">
-        <v>76</v>
-      </c>
-      <c r="U1" t="n">
-        <v>130</v>
-      </c>
       <c r="V1" t="n">
-        <v>187</v>
+        <v>32</v>
       </c>
       <c r="W1" t="n">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="X1" t="n">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="Y1" t="n">
         <v>9</v>
       </c>
       <c r="Z1" t="n">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="AA1" t="n">
         <v>57</v>
       </c>
       <c r="AB1" t="n">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="AC1" t="n">
+        <v>177</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>147</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>73</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>72</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>118</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>56</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>162</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>75</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>131</v>
+      </c>
+      <c r="AP1" t="n">
         <v>189</v>
       </c>
-      <c r="AD1" t="n">
-        <v>162</v>
-      </c>
-      <c r="AE1" t="n">
+      <c r="AQ1" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR1" t="n">
         <v>135</v>
       </c>
-      <c r="AF1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>150</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>52</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>108</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>69</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>14</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>134</v>
-      </c>
-      <c r="AP1" t="n">
-        <v>133</v>
-      </c>
-      <c r="AQ1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR1" t="n">
-        <v>349.3422627472958</v>
-      </c>
       <c r="AS1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>382.1016054169777</v>
+      </c>
+      <c r="AU1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1606,144 +1582,123 @@
         <v>126</v>
       </c>
       <c r="E2" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H2" t="n">
+        <v>168</v>
+      </c>
+      <c r="I2" t="n">
         <v>17</v>
       </c>
-      <c r="F2" t="n">
-        <v>168</v>
-      </c>
-      <c r="G2" t="n">
-        <v>26</v>
-      </c>
-      <c r="H2" t="n">
-        <v>81</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>151</v>
+      </c>
+      <c r="K2" t="n">
+        <v>76</v>
+      </c>
+      <c r="L2" t="n">
+        <v>40</v>
+      </c>
+      <c r="M2" t="n">
+        <v>130</v>
+      </c>
+      <c r="N2" t="n">
+        <v>187</v>
+      </c>
+      <c r="O2" t="n">
+        <v>145</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
         <v>12</v>
       </c>
-      <c r="J2" t="n">
+      <c r="R2" t="n">
         <v>50</v>
       </c>
-      <c r="K2" t="n">
-        <v>100</v>
-      </c>
-      <c r="L2" t="n">
-        <v>149</v>
-      </c>
-      <c r="M2" t="n">
-        <v>51</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
-      <c r="O2" t="n">
-        <v>35</v>
-      </c>
-      <c r="P2" t="n">
-        <v>177</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>98</v>
-      </c>
       <c r="S2" t="n">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="T2" t="n">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="U2" t="n">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="W2" t="n">
-        <v>176</v>
+        <v>38</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>119</v>
       </c>
       <c r="Y2" t="n">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="Z2" t="n">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="AB2" t="n">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="AC2" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="n">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="AF2" t="n">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="AG2" t="n">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AI2" t="n">
-        <v>182</v>
+        <v>84</v>
       </c>
       <c r="AJ2" t="n">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="n">
-        <v>73</v>
+        <v>164</v>
       </c>
       <c r="AL2" t="n">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="AM2" t="n">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="AN2" t="n">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="AO2" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>25</v>
+        <v>363.5286889558936</v>
       </c>
       <c r="AR2" t="n">
-        <v>118</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>92</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>163</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>169</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>353.3195452911467</v>
-      </c>
-      <c r="AY2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1752,156 +1707,174 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="C3" t="n">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="D3" t="n">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="F3" t="n">
-        <v>193</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
+        <v>139</v>
+      </c>
+      <c r="H3" t="n">
+        <v>157</v>
+      </c>
+      <c r="I3" t="n">
+        <v>86</v>
+      </c>
+      <c r="J3" t="n">
+        <v>112</v>
+      </c>
+      <c r="K3" t="n">
+        <v>66</v>
+      </c>
+      <c r="L3" t="n">
+        <v>196</v>
+      </c>
+      <c r="M3" t="n">
         <v>194</v>
-      </c>
-      <c r="H3" t="n">
-        <v>196</v>
-      </c>
-      <c r="I3" t="n">
-        <v>191</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>197</v>
-      </c>
-      <c r="L3" t="n">
-        <v>190</v>
-      </c>
-      <c r="M3" t="n">
-        <v>42</v>
       </c>
       <c r="N3" t="n">
         <v>105</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="P3" t="n">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="S3" t="n">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="T3" t="n">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="U3" t="n">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="V3" t="n">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="W3" t="n">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="X3" t="n">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="Y3" t="n">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="Z3" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="n">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="AB3" t="n">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="AD3" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="AF3" t="n">
-        <v>175</v>
+        <v>22</v>
       </c>
       <c r="AG3" t="n">
-        <v>167</v>
+        <v>91</v>
       </c>
       <c r="AH3" t="n">
-        <v>153</v>
+        <v>113</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="AK3" t="n">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="AL3" t="n">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="AM3" t="n">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="AP3" t="n">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="AR3" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>128</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>166</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>137</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>181</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>92</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>148</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>163</v>
+      </c>
+      <c r="BB3" t="n">
         <v>31</v>
       </c>
-      <c r="AT3" t="n">
-        <v>148</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>164</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>166</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>559.2612433276522</v>
-      </c>
-      <c r="AZ3" t="n">
+      <c r="BC3" t="n">
+        <v>146</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>585.5839311829131</v>
+      </c>
+      <c r="BF3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1913,141 +1886,123 @@
         <v>54</v>
       </c>
       <c r="C4" t="n">
-        <v>139</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="E4" t="n">
-        <v>157</v>
+        <v>28</v>
       </c>
       <c r="F4" t="n">
-        <v>86</v>
+        <v>156</v>
       </c>
       <c r="G4" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" t="n">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I4" t="n">
-        <v>186</v>
+        <v>21</v>
       </c>
       <c r="J4" t="n">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="K4" t="n">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="L4" t="n">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="M4" t="n">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>175</v>
+      </c>
+      <c r="P4" t="n">
+        <v>65</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>34</v>
+      </c>
+      <c r="R4" t="n">
+        <v>111</v>
+      </c>
+      <c r="S4" t="n">
+        <v>58</v>
+      </c>
+      <c r="T4" t="n">
+        <v>27</v>
+      </c>
+      <c r="U4" t="n">
+        <v>179</v>
+      </c>
+      <c r="V4" t="n">
+        <v>167</v>
+      </c>
+      <c r="W4" t="n">
+        <v>99</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>83</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>155</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>184</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>185</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>89</v>
+      </c>
+      <c r="AF4" t="n">
         <v>142</v>
       </c>
-      <c r="O4" t="n">
-        <v>114</v>
-      </c>
-      <c r="P4" t="n">
-        <v>159</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>145</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>195</v>
-      </c>
-      <c r="T4" t="n">
-        <v>198</v>
-      </c>
-      <c r="U4" t="n">
-        <v>53</v>
-      </c>
-      <c r="V4" t="n">
-        <v>192</v>
-      </c>
-      <c r="W4" t="n">
-        <v>184</v>
-      </c>
-      <c r="X4" t="n">
-        <v>199</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>115</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>143</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>89</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>156</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0</v>
-      </c>
       <c r="AG4" t="n">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="AH4" t="n">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="AI4" t="n">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="n">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AK4" t="n">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="AL4" t="n">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AO4" t="n">
-        <v>165</v>
+        <v>354.1621016875234</v>
       </c>
       <c r="AP4" t="n">
-        <v>170</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>85</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>84</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>389.2438044033386</v>
-      </c>
-      <c r="AV4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2056,123 +2011,138 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>60</v>
+        <v>188</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="D5" t="n">
-        <v>87</v>
+        <v>193</v>
       </c>
       <c r="E5" t="n">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="F5" t="n">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="G5" t="n">
-        <v>58</v>
+        <v>158</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>136</v>
+      </c>
+      <c r="J5" t="n">
+        <v>199</v>
+      </c>
+      <c r="K5" t="n">
+        <v>197</v>
+      </c>
+      <c r="L5" t="n">
+        <v>192</v>
+      </c>
+      <c r="M5" t="n">
+        <v>23</v>
+      </c>
+      <c r="N5" t="n">
+        <v>116</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>33</v>
+      </c>
+      <c r="R5" t="n">
+        <v>198</v>
+      </c>
+      <c r="S5" t="n">
+        <v>104</v>
+      </c>
+      <c r="T5" t="n">
+        <v>67</v>
+      </c>
+      <c r="U5" t="n">
+        <v>16</v>
+      </c>
+      <c r="V5" t="n">
+        <v>117</v>
+      </c>
+      <c r="W5" t="n">
+        <v>159</v>
+      </c>
+      <c r="X5" t="n">
+        <v>182</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>63</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>45</v>
       </c>
-      <c r="I5" t="n">
-        <v>29</v>
-      </c>
-      <c r="J5" t="n">
-        <v>59</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="AB5" t="n">
         <v>48</v>
       </c>
-      <c r="L5" t="n">
+      <c r="AC5" t="n">
         <v>171</v>
       </c>
-      <c r="M5" t="n">
+      <c r="AD5" t="n">
+        <v>173</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>47</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>122</v>
+      </c>
+      <c r="AH5" t="n">
         <v>140</v>
       </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>16</v>
-      </c>
-      <c r="P5" t="n">
-        <v>117</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>67</v>
-      </c>
-      <c r="R5" t="n">
-        <v>104</v>
-      </c>
-      <c r="S5" t="n">
-        <v>183</v>
-      </c>
-      <c r="T5" t="n">
-        <v>62</v>
-      </c>
-      <c r="U5" t="n">
-        <v>185</v>
-      </c>
-      <c r="V5" t="n">
-        <v>90</v>
-      </c>
-      <c r="W5" t="n">
-        <v>68</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>158</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>136</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>113</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>137</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>64</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>94</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>47</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>138</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>122</v>
-      </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AK5" t="n">
-        <v>345.3687612881532</v>
+        <v>186</v>
       </c>
       <c r="AL5" t="n">
+        <v>141</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>114</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>301.5415885407477</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1996.535617057586</v>
+        <v>1986.917915784056</v>
       </c>
       <c r="B6" t="n">
-        <v>1.672632217407227</v>
+        <v>1.906838893890381</v>
       </c>
     </row>
   </sheetData>
@@ -2186,7 +2156,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:BC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2208,129 +2178,123 @@
         <v>0</v>
       </c>
       <c r="E1" t="n">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="F1" t="n">
-        <v>194</v>
+        <v>151</v>
       </c>
       <c r="G1" t="n">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="H1" t="n">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I1" t="n">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="J1" t="n">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="K1" t="n">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="L1" t="n">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="M1" t="n">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="N1" t="n">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="O1" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P1" t="n">
-        <v>197</v>
+        <v>18</v>
       </c>
       <c r="Q1" t="n">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="R1" t="n">
         <v>0</v>
       </c>
       <c r="S1" t="n">
-        <v>3</v>
+        <v>130</v>
       </c>
       <c r="T1" t="n">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="U1" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V1" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="W1" t="n">
-        <v>106</v>
+        <v>9</v>
       </c>
       <c r="X1" t="n">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="Y1" t="n">
+        <v>56</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>118</v>
+      </c>
+      <c r="AB1" t="n">
         <v>161</v>
       </c>
-      <c r="Z1" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>97</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>109</v>
-      </c>
       <c r="AC1" t="n">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="AD1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>129</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>119</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>77</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>52</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>108</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>131</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AO1" t="n">
         <v>162</v>
       </c>
-      <c r="AE1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>39</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>56</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>118</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>72</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>146</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM1" t="n">
-        <v>92</v>
-      </c>
-      <c r="AN1" t="n">
-        <v>148</v>
-      </c>
-      <c r="AO1" t="n">
-        <v>135</v>
-      </c>
       <c r="AP1" t="n">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="AQ1" t="n">
-        <v>137</v>
+        <v>341.424773253275</v>
       </c>
       <c r="AR1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS1" t="n">
-        <v>394.9638352736951</v>
-      </c>
-      <c r="AT1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2342,129 +2306,162 @@
         <v>152</v>
       </c>
       <c r="C2" t="n">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>139</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="F2" t="n">
         <v>54</v>
       </c>
       <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="n">
         <v>125</v>
       </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
       <c r="I2" t="n">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="J2" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K2" t="n">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="L2" t="n">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="N2" t="n">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="O2" t="n">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="Q2" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="R2" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="S2" t="n">
-        <v>153</v>
+        <v>28</v>
       </c>
       <c r="T2" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="U2" t="n">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c r="V2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="X2" t="n">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="Y2" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>138</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AD2" t="n">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="AE2" t="n">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="AF2" t="n">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="AG2" t="n">
+        <v>113</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>156</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>94</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>82</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>173</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>171</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>172</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>120</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>92</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>163</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>148</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>164</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>165</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>137</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>62</v>
       </c>
-      <c r="AH2" t="n">
-        <v>185</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>43</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>199</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>142</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>114</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>89</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>405.485211981912</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>593.1465744757294</v>
+      </c>
+      <c r="BC2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2473,129 +2470,138 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="D3" t="n">
-        <v>159</v>
+        <v>81</v>
       </c>
       <c r="E3" t="n">
-        <v>182</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="J3" t="n">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="K3" t="n">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="L3" t="n">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="M3" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="O3" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="P3" t="n">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="Q3" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="S3" t="n">
-        <v>12</v>
+        <v>192</v>
       </c>
       <c r="T3" t="n">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="U3" t="n">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="V3" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="W3" t="n">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="Y3" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="Z3" t="n">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="AA3" t="n">
-        <v>75</v>
+        <v>185</v>
       </c>
       <c r="AB3" t="n">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="AD3" t="n">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="AE3" t="n">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="AG3" t="n">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="AH3" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="n">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="AJ3" t="n">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="AK3" t="n">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="n">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="AM3" t="n">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="AP3" t="n">
-        <v>289.0368916285234</v>
+        <v>134</v>
       </c>
       <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>359.7140191856085</v>
+      </c>
+      <c r="AT3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,147 +2610,138 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>188</v>
       </c>
       <c r="C4" t="n">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
+        <v>96</v>
+      </c>
+      <c r="F4" t="n">
+        <v>193</v>
+      </c>
+      <c r="G4" t="n">
+        <v>194</v>
+      </c>
+      <c r="H4" t="n">
         <v>66</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
+        <v>112</v>
+      </c>
+      <c r="J4" t="n">
         <v>196</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
         <v>191</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>158</v>
       </c>
-      <c r="I4" t="n">
-        <v>53</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>198</v>
       </c>
-      <c r="K4" t="n">
-        <v>195</v>
-      </c>
-      <c r="L4" t="n">
-        <v>193</v>
-      </c>
-      <c r="M4" t="n">
-        <v>33</v>
-      </c>
       <c r="N4" t="n">
-        <v>105</v>
+        <v>190</v>
       </c>
       <c r="O4" t="n">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="P4" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
+        <v>16</v>
+      </c>
+      <c r="R4" t="n">
+        <v>159</v>
+      </c>
+      <c r="S4" t="n">
+        <v>182</v>
+      </c>
+      <c r="T4" t="n">
+        <v>67</v>
+      </c>
+      <c r="U4" t="n">
+        <v>183</v>
+      </c>
+      <c r="V4" t="n">
+        <v>104</v>
+      </c>
+      <c r="W4" t="n">
+        <v>23</v>
+      </c>
+      <c r="X4" t="n">
         <v>116</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>175</v>
-      </c>
-      <c r="T4" t="n">
-        <v>70</v>
-      </c>
-      <c r="U4" t="n">
-        <v>19</v>
-      </c>
-      <c r="V4" t="n">
-        <v>78</v>
-      </c>
-      <c r="W4" t="n">
-        <v>177</v>
-      </c>
-      <c r="X4" t="n">
-        <v>133</v>
-      </c>
       <c r="Y4" t="n">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="Z4" t="n">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="n">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="AB4" t="n">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="AC4" t="n">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="AD4" t="n">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="AE4" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AG4" t="n">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="n">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="AJ4" t="n">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="AK4" t="n">
-        <v>124</v>
+        <v>20</v>
       </c>
       <c r="AL4" t="n">
         <v>166</v>
       </c>
       <c r="AM4" t="n">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="AN4" t="n">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="AP4" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AQ4" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>165</v>
+        <v>335.2573534777755</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>467.1469849921701</v>
-      </c>
-      <c r="AW4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2753,165 +2750,138 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="C5" t="n">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="E5" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>111</v>
+      </c>
+      <c r="G5" t="n">
+        <v>99</v>
+      </c>
+      <c r="H5" t="n">
+        <v>13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>83</v>
+      </c>
+      <c r="J5" t="n">
+        <v>153</v>
+      </c>
+      <c r="K5" t="n">
+        <v>29</v>
+      </c>
+      <c r="L5" t="n">
+        <v>98</v>
+      </c>
+      <c r="M5" t="n">
+        <v>154</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>175</v>
+      </c>
+      <c r="R5" t="n">
+        <v>46</v>
+      </c>
+      <c r="S5" t="n">
+        <v>102</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8</v>
+      </c>
+      <c r="U5" t="n">
+        <v>178</v>
+      </c>
+      <c r="V5" t="n">
+        <v>35</v>
+      </c>
+      <c r="W5" t="n">
+        <v>132</v>
+      </c>
+      <c r="X5" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z5" t="n">
         <v>149</v>
       </c>
-      <c r="F5" t="n">
-        <v>51</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>132</v>
-      </c>
-      <c r="I5" t="n">
-        <v>35</v>
-      </c>
-      <c r="J5" t="n">
-        <v>178</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>102</v>
-      </c>
-      <c r="M5" t="n">
-        <v>176</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>87</v>
-      </c>
-      <c r="P5" t="n">
-        <v>111</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>45</v>
-      </c>
-      <c r="R5" t="n">
-        <v>58</v>
-      </c>
-      <c r="S5" t="n">
-        <v>99</v>
-      </c>
-      <c r="T5" t="n">
-        <v>167</v>
-      </c>
-      <c r="U5" t="n">
-        <v>179</v>
-      </c>
-      <c r="V5" t="n">
-        <v>65</v>
-      </c>
-      <c r="W5" t="n">
-        <v>46</v>
-      </c>
-      <c r="X5" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>154</v>
-      </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AB5" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="AD5" t="n">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>47</v>
       </c>
       <c r="AF5" t="n">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="AG5" t="n">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="AI5" t="n">
-        <v>121</v>
+        <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="AK5" t="n">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="AL5" t="n">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="AM5" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AN5" t="n">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>131</v>
+        <v>416.724818245997</v>
       </c>
       <c r="AQ5" t="n">
-        <v>31</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>163</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>77</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>170</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>134</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>164</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>450.8278860751182</v>
-      </c>
-      <c r="AZ5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2007.460809951419</v>
+        <v>2046.267538638385</v>
       </c>
       <c r="B6" t="n">
-        <v>1.981407642364502</v>
+        <v>1.8535475730896</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +2895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2944,46 +2914,46 @@
         <v>12</v>
       </c>
       <c r="D1" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E1" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G1" t="n">
+        <v>44</v>
+      </c>
+      <c r="H1" t="n">
+        <v>15</v>
+      </c>
+      <c r="I1" t="n">
+        <v>45</v>
+      </c>
+      <c r="J1" t="n">
+        <v>33</v>
+      </c>
+      <c r="K1" t="n">
+        <v>39</v>
+      </c>
+      <c r="L1" t="n">
         <v>9</v>
       </c>
-      <c r="G1" t="n">
-        <v>16</v>
-      </c>
-      <c r="H1" t="n">
-        <v>20</v>
-      </c>
-      <c r="I1" t="n">
-        <v>35</v>
-      </c>
-      <c r="J1" t="n">
-        <v>36</v>
-      </c>
-      <c r="K1" t="n">
-        <v>3</v>
-      </c>
-      <c r="L1" t="n">
-        <v>28</v>
-      </c>
       <c r="M1" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="N1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O1" t="n">
         <v>0</v>
       </c>
       <c r="P1" t="n">
-        <v>152.6586550765982</v>
+        <v>132.6709240680679</v>
       </c>
       <c r="Q1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -2991,52 +2961,76 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2" t="n">
+        <v>42</v>
+      </c>
+      <c r="H2" t="n">
+        <v>41</v>
+      </c>
+      <c r="I2" t="n">
+        <v>13</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>34</v>
+      </c>
+      <c r="N2" t="n">
+        <v>21</v>
+      </c>
+      <c r="O2" t="n">
+        <v>29</v>
+      </c>
+      <c r="P2" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>36</v>
+      </c>
+      <c r="S2" t="n">
+        <v>49</v>
+      </c>
+      <c r="T2" t="n">
+        <v>30</v>
+      </c>
+      <c r="U2" t="n">
+        <v>19</v>
+      </c>
+      <c r="V2" t="n">
+        <v>40</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>356.9092341841005</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>22</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>29</v>
-      </c>
-      <c r="H2" t="n">
-        <v>21</v>
-      </c>
-      <c r="I2" t="n">
-        <v>34</v>
-      </c>
-      <c r="J2" t="n">
-        <v>30</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10</v>
-      </c>
-      <c r="L2" t="n">
-        <v>39</v>
-      </c>
-      <c r="M2" t="n">
-        <v>50</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>139.655916590908</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3044,45 +3038,51 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G3" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J3" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>129.9812700205735</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>142.2973822835189</v>
+      </c>
+      <c r="Q3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3091,72 +3091,42 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="n">
-        <v>48</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8</v>
-      </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>127.1993465358052</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19</v>
-      </c>
-      <c r="N4" t="n">
-        <v>41</v>
-      </c>
-      <c r="O4" t="n">
-        <v>40</v>
-      </c>
-      <c r="P4" t="n">
-        <v>42</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>24</v>
-      </c>
-      <c r="R4" t="n">
-        <v>33</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>329.8086421009652</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>752.1044837890449</v>
+        <v>759.0768870714926</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1342771053314209</v>
+        <v>0.1492657661437988</v>
       </c>
     </row>
   </sheetData>
@@ -3170,7 +3140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU5"/>
+  <dimension ref="A1:AR5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3183,141 +3153,132 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C1" t="n">
         <v>111</v>
       </c>
       <c r="D1" t="n">
+        <v>87</v>
+      </c>
+      <c r="E1" t="n">
         <v>86</v>
       </c>
-      <c r="E1" t="n">
+      <c r="F1" t="n">
         <v>85</v>
       </c>
-      <c r="F1" t="n">
+      <c r="G1" t="n">
         <v>112</v>
       </c>
-      <c r="G1" t="n">
+      <c r="H1" t="n">
         <v>84</v>
       </c>
-      <c r="H1" t="n">
+      <c r="I1" t="n">
         <v>117</v>
       </c>
-      <c r="I1" t="n">
+      <c r="J1" t="n">
         <v>83</v>
       </c>
-      <c r="J1" t="n">
+      <c r="K1" t="n">
         <v>18</v>
-      </c>
-      <c r="K1" t="n">
-        <v>114</v>
       </c>
       <c r="L1" t="n">
         <v>118</v>
       </c>
       <c r="M1" t="n">
+        <v>114</v>
+      </c>
+      <c r="N1" t="n">
         <v>108</v>
       </c>
-      <c r="N1" t="n">
-        <v>109</v>
-      </c>
       <c r="O1" t="n">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="P1" t="n">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="Q1" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="R1" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S1" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="T1" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="U1" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="V1" t="n">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="W1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="X1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Y1" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Z1" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA1" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AB1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="n">
         <v>26</v>
       </c>
-      <c r="AC1" t="n">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="n">
-        <v>32</v>
-      </c>
-      <c r="AE1" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF1" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG1" t="n">
-        <v>30</v>
-      </c>
-      <c r="AH1" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI1" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ1" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK1" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL1" t="n">
-        <v>25</v>
-      </c>
       <c r="AM1" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN1" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO1" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="AP1" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AQ1" t="n">
-        <v>33</v>
+        <v>322.8151609325217</v>
       </c>
       <c r="AR1" t="n">
-        <v>44</v>
-      </c>
-      <c r="AS1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT1" t="n">
-        <v>376.8946353156179</v>
-      </c>
-      <c r="AU1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,117 +3287,126 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
+        <v>101</v>
+      </c>
+      <c r="E2" t="n">
+        <v>99</v>
+      </c>
+      <c r="F2" t="n">
+        <v>104</v>
+      </c>
+      <c r="G2" t="n">
+        <v>103</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>116</v>
+      </c>
+      <c r="J2" t="n">
+        <v>110</v>
+      </c>
+      <c r="K2" t="n">
+        <v>115</v>
+      </c>
+      <c r="L2" t="n">
+        <v>97</v>
+      </c>
+      <c r="M2" t="n">
+        <v>94</v>
+      </c>
+      <c r="N2" t="n">
+        <v>96</v>
+      </c>
+      <c r="O2" t="n">
+        <v>106</v>
+      </c>
+      <c r="P2" t="n">
+        <v>107</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>93</v>
+      </c>
+      <c r="R2" t="n">
+        <v>113</v>
+      </c>
+      <c r="S2" t="n">
+        <v>119</v>
+      </c>
+      <c r="T2" t="n">
         <v>81</v>
       </c>
-      <c r="E2" t="n">
-        <v>119</v>
-      </c>
-      <c r="F2" t="n">
-        <v>120</v>
-      </c>
-      <c r="G2" t="n">
-        <v>105</v>
-      </c>
-      <c r="H2" t="n">
-        <v>106</v>
-      </c>
-      <c r="I2" t="n">
-        <v>102</v>
-      </c>
-      <c r="J2" t="n">
-        <v>101</v>
-      </c>
-      <c r="K2" t="n">
-        <v>99</v>
-      </c>
-      <c r="L2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M2" t="n">
-        <v>116</v>
-      </c>
-      <c r="N2" t="n">
-        <v>98</v>
-      </c>
-      <c r="O2" t="n">
-        <v>110</v>
-      </c>
-      <c r="P2" t="n">
-        <v>103</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>104</v>
-      </c>
-      <c r="R2" t="n">
-        <v>94</v>
-      </c>
-      <c r="S2" t="n">
-        <v>90</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
       <c r="U2" t="n">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="V2" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
         <v>41</v>
       </c>
       <c r="Y2" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="n">
         <v>39</v>
       </c>
       <c r="AA2" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AB2" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="AC2" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD2" t="n">
         <v>48</v>
       </c>
       <c r="AE2" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="AG2" t="n">
+        <v>49</v>
+      </c>
+      <c r="AH2" t="n">
         <v>50</v>
       </c>
-      <c r="AH2" t="n">
-        <v>38</v>
-      </c>
       <c r="AI2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>59</v>
+      </c>
+      <c r="AK2" t="n">
         <v>57</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>53</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
       <c r="AL2" t="n">
-        <v>378.6129536684525</v>
+        <v>52</v>
       </c>
       <c r="AM2" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>458.3846768367572</v>
+      </c>
+      <c r="AP2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3445,64 +3415,100 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="E3" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="G3" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="L3" t="n">
+        <v>76</v>
+      </c>
+      <c r="M3" t="n">
+        <v>73</v>
+      </c>
+      <c r="N3" t="n">
+        <v>77</v>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+      <c r="P3" t="n">
+        <v>98</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>68</v>
+      </c>
+      <c r="S3" t="n">
+        <v>53</v>
+      </c>
+      <c r="T3" t="n">
+        <v>55</v>
+      </c>
+      <c r="U3" t="n">
+        <v>54</v>
+      </c>
+      <c r="V3" t="n">
+        <v>58</v>
+      </c>
+      <c r="W3" t="n">
+        <v>62</v>
+      </c>
+      <c r="X3" t="n">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>63</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>61</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>66</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>56</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>444.6744793291031</v>
+      </c>
+      <c r="AG3" t="n">
         <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>13</v>
-      </c>
-      <c r="O3" t="n">
-        <v>12</v>
-      </c>
-      <c r="P3" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>16</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>208.1948258644542</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3510,108 +3516,72 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="F4" t="n">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="K4" t="n">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="N4" t="n">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q4" t="n">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>58</v>
+        <v>252.8746905684809</v>
       </c>
       <c r="U4" t="n">
-        <v>55</v>
-      </c>
-      <c r="V4" t="n">
-        <v>60</v>
-      </c>
-      <c r="W4" t="n">
-        <v>64</v>
-      </c>
-      <c r="X4" t="n">
-        <v>62</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>65</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>59</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>61</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>66</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>56</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>63</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>414.4601018210818</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1378.162516669606</v>
+        <v>1478.749007666863</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5850255489349365</v>
+        <v>0.6320805549621582</v>
       </c>
     </row>
   </sheetData>
@@ -3625,7 +3595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3641,69 +3611,75 @@
         <v>20</v>
       </c>
       <c r="C1" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1" t="n">
         <v>22</v>
       </c>
-      <c r="D1" t="n">
+      <c r="E1" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1" t="n">
         <v>25</v>
       </c>
-      <c r="E1" t="n">
+      <c r="G1" t="n">
         <v>27</v>
       </c>
-      <c r="F1" t="n">
-        <v>24</v>
-      </c>
-      <c r="G1" t="n">
-        <v>29</v>
-      </c>
       <c r="H1" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I1" t="n">
         <v>26</v>
       </c>
       <c r="J1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K1" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="L1" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="M1" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="N1" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O1" t="n">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="P1" t="n">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="Q1" t="n">
+        <v>97</v>
+      </c>
+      <c r="R1" t="n">
+        <v>93</v>
+      </c>
+      <c r="S1" t="n">
+        <v>94</v>
+      </c>
+      <c r="T1" t="n">
+        <v>92</v>
+      </c>
+      <c r="U1" t="n">
+        <v>12</v>
+      </c>
+      <c r="V1" t="n">
+        <v>16</v>
+      </c>
+      <c r="W1" t="n">
         <v>14</v>
       </c>
-      <c r="R1" t="n">
-        <v>12</v>
-      </c>
-      <c r="S1" t="n">
-        <v>16</v>
-      </c>
-      <c r="T1" t="n">
-        <v>100</v>
-      </c>
-      <c r="U1" t="n">
-        <v>99</v>
-      </c>
-      <c r="V1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W1" t="n">
-        <v>192.3990282390057</v>
-      </c>
       <c r="X1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>236.3970819123927</v>
+      </c>
+      <c r="Z1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,78 +3688,75 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>65</v>
+      </c>
+      <c r="C2" t="n">
+        <v>63</v>
+      </c>
+      <c r="D2" t="n">
         <v>67</v>
       </c>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>66</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2" t="n">
         <v>62</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>61</v>
-      </c>
-      <c r="G2" t="n">
-        <v>72</v>
-      </c>
-      <c r="H2" t="n">
-        <v>74</v>
       </c>
       <c r="I2" t="n">
         <v>64</v>
       </c>
       <c r="J2" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K2" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L2" t="n">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="O2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P2" t="n">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="Q2" t="n">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="R2" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="S2" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="T2" t="n">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="U2" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="V2" t="n">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="W2" t="n">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>232.1217194422304</v>
       </c>
       <c r="Y2" t="n">
-        <v>279.6051764934157</v>
-      </c>
-      <c r="Z2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3798,49 +3771,79 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>11</v>
+      </c>
+      <c r="I3" t="n">
+        <v>10</v>
+      </c>
+      <c r="J3" t="n">
         <v>7</v>
       </c>
-      <c r="E3" t="n">
-        <v>8</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
+        <v>75</v>
+      </c>
+      <c r="L3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
-        <v>75</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="n">
-        <v>10</v>
-      </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="Q3" t="n">
-        <v>118.5884135535135</v>
+        <v>79</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>77</v>
+      </c>
+      <c r="S3" t="n">
+        <v>73</v>
+      </c>
+      <c r="T3" t="n">
+        <v>70</v>
+      </c>
+      <c r="U3" t="n">
+        <v>76</v>
+      </c>
+      <c r="V3" t="n">
+        <v>78</v>
+      </c>
+      <c r="W3" t="n">
+        <v>81</v>
+      </c>
+      <c r="X3" t="n">
+        <v>71</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>80</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>292.1026125191395</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3851,63 +3854,60 @@
         <v>43</v>
       </c>
       <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44</v>
+      </c>
+      <c r="E4" t="n">
+        <v>45</v>
+      </c>
+      <c r="F4" t="n">
+        <v>48</v>
+      </c>
+      <c r="G4" t="n">
+        <v>46</v>
+      </c>
+      <c r="H4" t="n">
         <v>47</v>
       </c>
-      <c r="D4" t="n">
-        <v>46</v>
-      </c>
-      <c r="E4" t="n">
-        <v>44</v>
-      </c>
-      <c r="F4" t="n">
-        <v>45</v>
-      </c>
-      <c r="G4" t="n">
-        <v>42</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>49</v>
+      </c>
+      <c r="J4" t="n">
+        <v>50</v>
+      </c>
+      <c r="K4" t="n">
+        <v>51</v>
+      </c>
+      <c r="L4" t="n">
         <v>40</v>
       </c>
-      <c r="I4" t="n">
-        <v>48</v>
-      </c>
-      <c r="J4" t="n">
-        <v>51</v>
-      </c>
-      <c r="K4" t="n">
-        <v>50</v>
-      </c>
-      <c r="L4" t="n">
-        <v>49</v>
-      </c>
       <c r="M4" t="n">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="N4" t="n">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="O4" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="Q4" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="S4" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>197.8751424128576</v>
       </c>
       <c r="U4" t="n">
-        <v>280.1150790425355</v>
-      </c>
-      <c r="V4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,48 +3916,42 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
+        <v>68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59</v>
+      </c>
+      <c r="E5" t="n">
+        <v>54</v>
+      </c>
+      <c r="F5" t="n">
+        <v>53</v>
+      </c>
+      <c r="G5" t="n">
+        <v>56</v>
+      </c>
+      <c r="H5" t="n">
+        <v>58</v>
+      </c>
+      <c r="I5" t="n">
+        <v>57</v>
+      </c>
+      <c r="J5" t="n">
         <v>90</v>
       </c>
-      <c r="C5" t="n">
-        <v>89</v>
-      </c>
-      <c r="D5" t="n">
-        <v>91</v>
-      </c>
-      <c r="E5" t="n">
-        <v>87</v>
-      </c>
-      <c r="F5" t="n">
-        <v>88</v>
-      </c>
-      <c r="G5" t="n">
-        <v>85</v>
-      </c>
-      <c r="H5" t="n">
-        <v>86</v>
-      </c>
-      <c r="I5" t="n">
-        <v>84</v>
-      </c>
-      <c r="J5" t="n">
-        <v>83</v>
-      </c>
       <c r="K5" t="n">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>133.2358024187037</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>130.3203486626591</v>
-      </c>
-      <c r="P5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3966,81 +3960,57 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="F6" t="n">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="G6" t="n">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="H6" t="n">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="I6" t="n">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="J6" t="n">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="L6" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M6" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>93</v>
+        <v>127.5330837972849</v>
       </c>
       <c r="P6" t="n">
-        <v>97</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>96</v>
-      </c>
-      <c r="R6" t="n">
-        <v>78</v>
-      </c>
-      <c r="S6" t="n">
-        <v>76</v>
-      </c>
-      <c r="T6" t="n">
-        <v>71</v>
-      </c>
-      <c r="U6" t="n">
-        <v>73</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>285.7906125731737</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1286.818658564303</v>
+        <v>1219.265442502609</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4256279468536377</v>
+        <v>0.4529902935028076</v>
       </c>
     </row>
   </sheetData>
@@ -4054,7 +4024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4070,75 +4040,66 @@
         <v>20</v>
       </c>
       <c r="C1" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E1" t="n">
+        <v>26</v>
+      </c>
+      <c r="F1" t="n">
+        <v>28</v>
+      </c>
+      <c r="G1" t="n">
+        <v>30</v>
+      </c>
+      <c r="H1" t="n">
+        <v>27</v>
+      </c>
+      <c r="I1" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1" t="n">
         <v>21</v>
       </c>
-      <c r="D1" t="n">
-        <v>22</v>
-      </c>
-      <c r="E1" t="n">
-        <v>23</v>
-      </c>
-      <c r="F1" t="n">
-        <v>25</v>
-      </c>
-      <c r="G1" t="n">
-        <v>24</v>
-      </c>
-      <c r="H1" t="n">
-        <v>29</v>
-      </c>
-      <c r="I1" t="n">
-        <v>30</v>
-      </c>
-      <c r="J1" t="n">
-        <v>27</v>
-      </c>
-      <c r="K1" t="n">
-        <v>26</v>
-      </c>
       <c r="L1" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="M1" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N1" t="n">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="O1" t="n">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="P1" t="n">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="Q1" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="R1" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S1" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="T1" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="U1" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="V1" t="n">
-        <v>55</v>
+        <v>175.2029036422611</v>
       </c>
       <c r="W1" t="n">
-        <v>60</v>
-      </c>
-      <c r="X1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>224.7207407861301</v>
-      </c>
-      <c r="Z1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4153,67 +4114,67 @@
         <v>63</v>
       </c>
       <c r="D2" t="n">
+        <v>62</v>
+      </c>
+      <c r="E2" t="n">
+        <v>74</v>
+      </c>
+      <c r="F2" t="n">
+        <v>72</v>
+      </c>
+      <c r="G2" t="n">
+        <v>61</v>
+      </c>
+      <c r="H2" t="n">
+        <v>68</v>
+      </c>
+      <c r="I2" t="n">
+        <v>69</v>
+      </c>
+      <c r="J2" t="n">
+        <v>66</v>
+      </c>
+      <c r="K2" t="n">
+        <v>64</v>
+      </c>
+      <c r="L2" t="n">
         <v>65</v>
       </c>
-      <c r="E2" t="n">
-        <v>66</v>
-      </c>
-      <c r="F2" t="n">
-        <v>62</v>
-      </c>
-      <c r="G2" t="n">
-        <v>69</v>
-      </c>
-      <c r="H2" t="n">
-        <v>64</v>
-      </c>
-      <c r="I2" t="n">
-        <v>68</v>
-      </c>
-      <c r="J2" t="n">
-        <v>72</v>
-      </c>
-      <c r="K2" t="n">
-        <v>74</v>
-      </c>
-      <c r="L2" t="n">
-        <v>61</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="O2" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P2" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="R2" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="S2" t="n">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="T2" t="n">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="U2" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="V2" t="n">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>250.6396784552268</v>
+        <v>208.3282683771031</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -4224,58 +4185,73 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="M3" t="n">
+        <v>49</v>
+      </c>
+      <c r="N3" t="n">
+        <v>44</v>
+      </c>
+      <c r="O3" t="n">
+        <v>59</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>31</v>
+      </c>
+      <c r="R3" t="n">
+        <v>80</v>
+      </c>
+      <c r="S3" t="n">
+        <v>79</v>
+      </c>
+      <c r="T3" t="n">
+        <v>70</v>
+      </c>
+      <c r="U3" t="n">
+        <v>77</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>300.1706991547916</v>
+      </c>
+      <c r="X3" t="n">
         <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>99</v>
-      </c>
-      <c r="O3" t="n">
-        <v>94</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>125.1347554329342</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4283,63 +4259,81 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="H4" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K4" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="M4" t="n">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="N4" t="n">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="O4" t="n">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="P4" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="R4" t="n">
+        <v>15</v>
+      </c>
+      <c r="S4" t="n">
+        <v>19</v>
+      </c>
+      <c r="T4" t="n">
+        <v>14</v>
+      </c>
+      <c r="U4" t="n">
+        <v>12</v>
+      </c>
+      <c r="V4" t="n">
+        <v>13</v>
+      </c>
+      <c r="W4" t="n">
         <v>16</v>
       </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>204.0111226498944</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="X4" t="n">
+        <v>97</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>257.7712897557341</v>
+      </c>
+      <c r="AA4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4348,76 +4342,46 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D5" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E5" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F5" t="n">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G5" t="n">
+        <v>94</v>
+      </c>
+      <c r="H5" t="n">
+        <v>92</v>
+      </c>
+      <c r="I5" t="n">
+        <v>93</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+      <c r="K5" t="n">
         <v>88</v>
       </c>
-      <c r="H5" t="n">
-        <v>84</v>
-      </c>
-      <c r="I5" t="n">
-        <v>83</v>
-      </c>
-      <c r="J5" t="n">
-        <v>82</v>
-      </c>
-      <c r="K5" t="n">
-        <v>85</v>
-      </c>
       <c r="L5" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>18</v>
+        <v>123.8942801819103</v>
       </c>
       <c r="O5" t="n">
-        <v>17</v>
-      </c>
-      <c r="P5" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>19</v>
-      </c>
-      <c r="R5" t="n">
-        <v>81</v>
-      </c>
-      <c r="S5" t="n">
-        <v>78</v>
-      </c>
-      <c r="T5" t="n">
-        <v>71</v>
-      </c>
-      <c r="U5" t="n">
-        <v>76</v>
-      </c>
-      <c r="V5" t="n">
-        <v>70</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>330.1531111529395</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4425,51 +4389,57 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C6" t="n">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D6" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E6" t="n">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F6" t="n">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="J6" t="n">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="M6" t="n">
-        <v>144.321100550959</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>141.3240758470876</v>
+      </c>
+      <c r="P6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1278.980509028084</v>
+        <v>1206.691516958888</v>
       </c>
       <c r="B7" t="n">
-        <v>0.437544584274292</v>
+        <v>0.5353372097015381</v>
       </c>
     </row>
   </sheetData>
@@ -4483,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4496,51 +4466,63 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C1" t="n">
+        <v>68</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" t="n">
         <v>34</v>
       </c>
-      <c r="D1" t="n">
-        <v>52</v>
-      </c>
-      <c r="E1" t="n">
-        <v>27</v>
-      </c>
       <c r="F1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I1" t="n">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="J1" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="K1" t="n">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="L1" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="M1" t="n">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="N1" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="O1" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="P1" t="n">
-        <v>124.6441129909074</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="n">
+        <v>56</v>
+      </c>
+      <c r="R1" t="n">
+        <v>23</v>
+      </c>
+      <c r="S1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T1" t="n">
+        <v>162.228058714726</v>
+      </c>
+      <c r="U1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4558,57 +4540,48 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="K2" t="n">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="N2" t="n">
+        <v>20</v>
+      </c>
+      <c r="O2" t="n">
         <v>21</v>
       </c>
-      <c r="O2" t="n">
-        <v>74</v>
-      </c>
       <c r="P2" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>50</v>
+        <v>294.0632471468862</v>
       </c>
       <c r="S2" t="n">
-        <v>61</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>342.037261348626</v>
-      </c>
-      <c r="V2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4617,57 +4590,60 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
+        <v>37</v>
+      </c>
+      <c r="I3" t="n">
+        <v>72</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>39</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" t="n">
+        <v>31</v>
+      </c>
+      <c r="N3" t="n">
+        <v>18</v>
+      </c>
+      <c r="O3" t="n">
+        <v>24</v>
+      </c>
+      <c r="P3" t="n">
         <v>22</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>33</v>
-      </c>
-      <c r="K3" t="n">
-        <v>43</v>
-      </c>
-      <c r="L3" t="n">
-        <v>41</v>
-      </c>
-      <c r="M3" t="n">
-        <v>56</v>
-      </c>
-      <c r="N3" t="n">
-        <v>24</v>
-      </c>
-      <c r="O3" t="n">
-        <v>18</v>
-      </c>
-      <c r="P3" t="n">
-        <v>25</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="R3" t="n">
-        <v>210.5018949978011</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
+        <v>277.8986682267957</v>
+      </c>
+      <c r="T3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4676,66 +4652,60 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="G4" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="J4" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="L4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M4" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="N4" t="n">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="R4" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>13</v>
+        <v>193.5875155332251</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>228.2828367520879</v>
-      </c>
-      <c r="V4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4744,58 +4714,58 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="G5" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>55</v>
+      </c>
+      <c r="J5" t="n">
+        <v>49</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>13</v>
+      </c>
+      <c r="M5" t="n">
         <v>54</v>
       </c>
-      <c r="H5" t="n">
-        <v>57</v>
-      </c>
-      <c r="I5" t="n">
-        <v>15</v>
-      </c>
-      <c r="J5" t="n">
-        <v>29</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>14</v>
-      </c>
-      <c r="N5" t="n">
-        <v>59</v>
       </c>
       <c r="O5" t="n">
         <v>66</v>
       </c>
       <c r="P5" t="n">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="Q5" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>286.8192122236923</v>
+        <v>277.4263896974541</v>
       </c>
       <c r="T5" t="n">
         <v>1</v>
@@ -4803,10 +4773,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1192.285318313115</v>
+        <v>1205.203879319087</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2589166164398193</v>
+        <v>0.3501522541046143</v>
       </c>
     </row>
   </sheetData>
@@ -4836,61 +4806,37 @@
         <v>67</v>
       </c>
       <c r="C1" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D1" t="n">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="E1" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F1" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="G1" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="H1" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="I1" t="n">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="J1" t="n">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="K1" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="L1" t="n">
-        <v>57</v>
+        <v>124.2401671974412</v>
       </c>
       <c r="M1" t="n">
-        <v>20</v>
-      </c>
-      <c r="N1" t="n">
-        <v>70</v>
-      </c>
-      <c r="O1" t="n">
-        <v>15</v>
-      </c>
-      <c r="P1" t="n">
-        <v>60</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>61</v>
-      </c>
-      <c r="R1" t="n">
-        <v>22</v>
-      </c>
-      <c r="S1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T1" t="n">
-        <v>217.9569010553505</v>
-      </c>
-      <c r="U1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -4898,57 +4844,63 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="H2" t="n">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L2" t="n">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="N2" t="n">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="O2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P2" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R2" t="n">
-        <v>213.993965945092</v>
+        <v>57</v>
       </c>
       <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>253.4923185307617</v>
+      </c>
+      <c r="U2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4957,43 +4909,61 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="n">
+        <v>74</v>
+      </c>
+      <c r="G3" t="n">
+        <v>48</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>53</v>
+      </c>
+      <c r="M3" t="n">
+        <v>11</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>25</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q3" t="n">
         <v>44</v>
       </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
-        <v>49</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" t="n">
-        <v>72</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>119.7473589731438</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>195.988627707556</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5001,55 +4971,40 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F4" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" t="n">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>31</v>
+        <v>126.885778844294</v>
       </c>
       <c r="M4" t="n">
-        <v>58</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>24</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>269.183490784066</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5057,60 +5012,63 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="G5" t="n">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I5" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K5" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="M5" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="N5" t="n">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O5" t="n">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="P5" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="S5" t="n">
-        <v>228.5615107457005</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
+        <v>275.798647340875</v>
+      </c>
+      <c r="U5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,48 +5077,60 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
+        <v>37</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20</v>
+      </c>
+      <c r="F6" t="n">
+        <v>70</v>
+      </c>
+      <c r="G6" t="n">
+        <v>36</v>
+      </c>
+      <c r="H6" t="n">
+        <v>69</v>
+      </c>
+      <c r="I6" t="n">
+        <v>21</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>50</v>
+      </c>
+      <c r="L6" t="n">
+        <v>16</v>
+      </c>
+      <c r="M6" t="n">
+        <v>56</v>
+      </c>
+      <c r="N6" t="n">
+        <v>64</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>236.0709463687679</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1</v>
-      </c>
-      <c r="E6" t="n">
-        <v>43</v>
-      </c>
-      <c r="F6" t="n">
-        <v>42</v>
-      </c>
-      <c r="G6" t="n">
-        <v>64</v>
-      </c>
-      <c r="H6" t="n">
-        <v>41</v>
-      </c>
-      <c r="I6" t="n">
-        <v>56</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>112.3578430048497</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1161.801070508202</v>
+        <v>1212.476485989696</v>
       </c>
       <c r="B7" t="n">
-        <v>0.288482666015625</v>
+        <v>0.3088271617889404</v>
       </c>
     </row>
   </sheetData>
@@ -5174,7 +5144,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5193,54 +5163,48 @@
         <v>34</v>
       </c>
       <c r="D1" t="n">
+        <v>46</v>
+      </c>
+      <c r="E1" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1" t="n">
         <v>52</v>
       </c>
-      <c r="E1" t="n">
+      <c r="G1" t="n">
         <v>27</v>
       </c>
-      <c r="F1" t="n">
-        <v>45</v>
-      </c>
-      <c r="G1" t="n">
-        <v>29</v>
-      </c>
       <c r="H1" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="I1" t="n">
         <v>0</v>
       </c>
       <c r="J1" t="n">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="K1" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="L1" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="M1" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="N1" t="n">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="O1" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="P1" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="Q1" t="n">
-        <v>43</v>
+        <v>165.009904327703</v>
       </c>
       <c r="R1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S1" t="n">
-        <v>216.1403355036464</v>
-      </c>
-      <c r="T1" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5255,36 +5219,33 @@
         <v>12</v>
       </c>
       <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
         <v>40</v>
       </c>
-      <c r="E2" t="n">
-        <v>17</v>
-      </c>
       <c r="F2" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="J2" t="n">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>119.8624368223963</v>
       </c>
       <c r="M2" t="n">
-        <v>117.6852669483025</v>
-      </c>
-      <c r="N2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5293,37 +5254,58 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="C3" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>74</v>
+      </c>
+      <c r="F3" t="n">
         <v>30</v>
       </c>
-      <c r="E3" t="n">
-        <v>28</v>
-      </c>
-      <c r="F3" t="n">
-        <v>21</v>
-      </c>
       <c r="G3" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="H3" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>105.8477227933713</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="M3" t="n">
+        <v>50</v>
+      </c>
+      <c r="N3" t="n">
+        <v>24</v>
+      </c>
+      <c r="O3" t="n">
+        <v>42</v>
+      </c>
+      <c r="P3" t="n">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>221.0780610171399</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5331,63 +5313,60 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>57</v>
+      </c>
+      <c r="L4" t="n">
+        <v>61</v>
+      </c>
+      <c r="M4" t="n">
         <v>22</v>
       </c>
-      <c r="L4" t="n">
-        <v>42</v>
-      </c>
-      <c r="M4" t="n">
-        <v>41</v>
-      </c>
       <c r="N4" t="n">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P4" t="n">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R4" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>352.4764289782749</v>
       </c>
       <c r="T4" t="n">
-        <v>327.7149932336614</v>
-      </c>
-      <c r="U4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5396,55 +5375,43 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
+        <v>23</v>
+      </c>
+      <c r="F5" t="n">
         <v>63</v>
       </c>
-      <c r="F5" t="n">
-        <v>16</v>
-      </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="K5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>65</v>
+        <v>118.6595134402042</v>
       </c>
       <c r="N5" t="n">
-        <v>54</v>
-      </c>
-      <c r="O5" t="n">
-        <v>59</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>231.669977284169</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -5452,33 +5419,42 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J6" t="n">
-        <v>111.8096620185813</v>
+        <v>54</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>121.8723799499833</v>
+      </c>
+      <c r="N6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5487,51 +5463,45 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E7" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>143.1574781386174</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>117.0182032178592</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1227.886160999591</v>
+        <v>1242.116202674319</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2972323894500732</v>
+        <v>0.3012831211090088</v>
       </c>
     </row>
   </sheetData>
@@ -5545,7 +5515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5558,94 +5528,97 @@
         <v>0</v>
       </c>
       <c r="B1" t="n">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C1" t="n">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="D1" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E1" t="n">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F1" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G1" t="n">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="H1" t="n">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I1" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="J1" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K1" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L1" t="n">
+        <v>81</v>
+      </c>
+      <c r="M1" t="n">
+        <v>33</v>
+      </c>
+      <c r="N1" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>21</v>
+      </c>
+      <c r="R1" t="n">
+        <v>73</v>
+      </c>
+      <c r="S1" t="n">
+        <v>72</v>
+      </c>
+      <c r="T1" t="n">
+        <v>74</v>
+      </c>
+      <c r="U1" t="n">
+        <v>22</v>
+      </c>
+      <c r="V1" t="n">
+        <v>75</v>
+      </c>
+      <c r="W1" t="n">
+        <v>56</v>
+      </c>
+      <c r="X1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="n">
+        <v>39</v>
+      </c>
+      <c r="Z1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB1" t="n">
         <v>80</v>
       </c>
-      <c r="M1" t="n">
-        <v>3</v>
-      </c>
-      <c r="N1" t="n">
-        <v>29</v>
-      </c>
-      <c r="O1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P1" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>88</v>
-      </c>
-      <c r="R1" t="n">
-        <v>7</v>
-      </c>
-      <c r="S1" t="n">
-        <v>48</v>
-      </c>
-      <c r="T1" t="n">
-        <v>82</v>
-      </c>
-      <c r="U1" t="n">
-        <v>47</v>
-      </c>
-      <c r="V1" t="n">
-        <v>36</v>
-      </c>
-      <c r="W1" t="n">
-        <v>49</v>
-      </c>
-      <c r="X1" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>90</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>63</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>24</v>
-      </c>
       <c r="AC1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AD1" t="n">
-        <v>292.6262404873356</v>
+        <v>0</v>
       </c>
       <c r="AE1" t="n">
-        <v>1</v>
+        <v>216.4516963107435</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -5653,97 +5626,73 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G2" t="n">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
+        <v>63</v>
+      </c>
+      <c r="K2" t="n">
+        <v>32</v>
+      </c>
+      <c r="L2" t="n">
+        <v>30</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20</v>
+      </c>
+      <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24</v>
+      </c>
+      <c r="P2" t="n">
         <v>91</v>
       </c>
-      <c r="K2" t="n">
-        <v>98</v>
-      </c>
-      <c r="L2" t="n">
-        <v>37</v>
-      </c>
-      <c r="M2" t="n">
-        <v>100</v>
-      </c>
-      <c r="N2" t="n">
-        <v>97</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>69</v>
-      </c>
       <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>90</v>
+      </c>
+      <c r="S2" t="n">
+        <v>64</v>
+      </c>
+      <c r="T2" t="n">
+        <v>67</v>
+      </c>
+      <c r="U2" t="n">
+        <v>66</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>460.3645337031321</v>
+      </c>
+      <c r="X2" t="n">
         <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>50</v>
-      </c>
-      <c r="S2" t="n">
-        <v>79</v>
-      </c>
-      <c r="T2" t="n">
-        <v>78</v>
-      </c>
-      <c r="U2" t="n">
-        <v>34</v>
-      </c>
-      <c r="V2" t="n">
-        <v>81</v>
-      </c>
-      <c r="W2" t="n">
-        <v>33</v>
-      </c>
-      <c r="X2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>66</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>215.2536791406114</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -5751,100 +5700,91 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="H3" t="n">
+        <v>85</v>
+      </c>
+      <c r="I3" t="n">
+        <v>61</v>
+      </c>
+      <c r="J3" t="n">
+        <v>93</v>
+      </c>
+      <c r="K3" t="n">
+        <v>99</v>
+      </c>
+      <c r="L3" t="n">
+        <v>96</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6</v>
+      </c>
+      <c r="N3" t="n">
         <v>83</v>
       </c>
-      <c r="I3" t="n">
-        <v>45</v>
-      </c>
-      <c r="J3" t="n">
-        <v>17</v>
-      </c>
-      <c r="K3" t="n">
-        <v>61</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>59</v>
+      </c>
+      <c r="R3" t="n">
+        <v>100</v>
+      </c>
+      <c r="S3" t="n">
         <v>16</v>
       </c>
-      <c r="M3" t="n">
+      <c r="T3" t="n">
         <v>86</v>
       </c>
-      <c r="N3" t="n">
+      <c r="U3" t="n">
         <v>44</v>
       </c>
-      <c r="O3" t="n">
+      <c r="V3" t="n">
+        <v>14</v>
+      </c>
+      <c r="W3" t="n">
         <v>42</v>
       </c>
-      <c r="P3" t="n">
+      <c r="X3" t="n">
+        <v>87</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z3" t="n">
         <v>57</v>
       </c>
-      <c r="Q3" t="n">
-        <v>55</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>21</v>
-      </c>
-      <c r="T3" t="n">
-        <v>73</v>
-      </c>
-      <c r="U3" t="n">
-        <v>23</v>
-      </c>
-      <c r="V3" t="n">
-        <v>67</v>
-      </c>
-      <c r="W3" t="n">
-        <v>39</v>
-      </c>
-      <c r="X3" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>54</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>25</v>
-      </c>
       <c r="AA3" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>62</v>
+        <v>210.3154018076195</v>
       </c>
       <c r="AD3" t="n">
-        <v>64</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>393.0024057965449</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -5852,81 +5792,111 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="C4" t="n">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
+        <v>82</v>
+      </c>
+      <c r="G4" t="n">
+        <v>48</v>
+      </c>
+      <c r="H4" t="n">
+        <v>19</v>
+      </c>
+      <c r="I4" t="n">
+        <v>49</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>17</v>
+      </c>
+      <c r="N4" t="n">
+        <v>84</v>
+      </c>
+      <c r="O4" t="n">
+        <v>60</v>
+      </c>
+      <c r="P4" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>88</v>
+      </c>
+      <c r="S4" t="n">
+        <v>8</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>43</v>
+      </c>
+      <c r="V4" t="n">
         <v>15</v>
       </c>
-      <c r="G4" t="n">
-        <v>43</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="W4" t="n">
         <v>38</v>
       </c>
-      <c r="J4" t="n">
-        <v>41</v>
-      </c>
-      <c r="K4" t="n">
-        <v>74</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22</v>
-      </c>
-      <c r="M4" t="n">
-        <v>75</v>
-      </c>
-      <c r="N4" t="n">
-        <v>72</v>
-      </c>
-      <c r="O4" t="n">
-        <v>56</v>
-      </c>
-      <c r="P4" t="n">
-        <v>46</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>30</v>
-      </c>
-      <c r="S4" t="n">
-        <v>20</v>
-      </c>
-      <c r="T4" t="n">
-        <v>8</v>
-      </c>
-      <c r="U4" t="n">
-        <v>32</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>391.1589962997627</v>
-      </c>
       <c r="X4" t="n">
+        <v>54</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>68</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>551.8452613557189</v>
+      </c>
+      <c r="AH4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1292.041321724255</v>
+        <v>1438.976893177214</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4433026313781738</v>
+        <v>0.4711833000183105</v>
       </c>
     </row>
   </sheetData>
